--- a/SO SACH - LA/CONG NO/Cong no NL ca.xlsx
+++ b/SO SACH - LA/CONG NO/Cong no NL ca.xlsx
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2251" uniqueCount="443">
   <si>
     <t xml:space="preserve">NGÀY </t>
   </si>
@@ -1507,15 +1507,12 @@
 2016</t>
   </si>
   <si>
-    <t>HƯƠNG
-ST</t>
-  </si>
-  <si>
-    <t>ĐÔNG TIẾN</t>
-  </si>
-  <si>
-    <t>THẢO
-G.CÔNG</t>
+    <t>TRUNG
+VT</t>
+  </si>
+  <si>
+    <t>TÂM
+VT</t>
   </si>
 </sst>
 </file>
@@ -2843,6 +2840,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2870,12 +2873,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2885,6 +2882,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2892,15 +2898,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3969,39 +3966,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="93"/>
       <c r="G3" s="226"/>
       <c r="H3" s="62"/>
@@ -4016,18 +4013,18 @@
       <c r="I4" s="233"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
-      <c r="J5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -4038,12 +4035,12 @@
       <c r="I6" s="233"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="251" t="s">
         <v>415</v>
       </c>
-      <c r="B7" s="249"/>
-      <c r="C7" s="248"/>
-      <c r="D7" s="248"/>
+      <c r="B7" s="251"/>
+      <c r="C7" s="250"/>
+      <c r="D7" s="250"/>
       <c r="E7" s="269" t="s">
         <v>29</v>
       </c>
@@ -4525,39 +4522,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="93"/>
       <c r="G3" s="59"/>
       <c r="H3" s="62"/>
@@ -4572,18 +4569,18 @@
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
-      <c r="J5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -4594,14 +4591,14 @@
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="251" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="249"/>
-      <c r="C7" s="248" t="s">
+      <c r="B7" s="251"/>
+      <c r="C7" s="250" t="s">
         <v>363</v>
       </c>
-      <c r="D7" s="248"/>
+      <c r="D7" s="250"/>
       <c r="E7" s="269" t="s">
         <v>29</v>
       </c>
@@ -8082,58 +8079,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="F1" s="61"/>
       <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
       <c r="F2" s="61"/>
       <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="61"/>
       <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:8" s="63" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
     </row>
     <row r="6" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="251" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="249"/>
+      <c r="B7" s="251"/>
       <c r="C7" s="277" t="s">
         <v>27</v>
       </c>
@@ -8234,14 +8231,14 @@
       <c r="H12" s="121"/>
     </row>
     <row r="13" spans="1:8" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="253"/>
-      <c r="B13" s="254"/>
-      <c r="C13" s="254"/>
-      <c r="D13" s="254"/>
-      <c r="E13" s="254"/>
-      <c r="F13" s="254"/>
-      <c r="G13" s="254"/>
-      <c r="H13" s="255"/>
+      <c r="A13" s="255"/>
+      <c r="B13" s="256"/>
+      <c r="C13" s="256"/>
+      <c r="D13" s="256"/>
+      <c r="E13" s="256"/>
+      <c r="F13" s="256"/>
+      <c r="G13" s="256"/>
+      <c r="H13" s="257"/>
     </row>
     <row r="14" spans="1:8" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
@@ -8457,14 +8454,14 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="253"/>
-      <c r="B23" s="254"/>
-      <c r="C23" s="254"/>
-      <c r="D23" s="254"/>
-      <c r="E23" s="254"/>
-      <c r="F23" s="254"/>
-      <c r="G23" s="254"/>
-      <c r="H23" s="255"/>
+      <c r="A23" s="255"/>
+      <c r="B23" s="256"/>
+      <c r="C23" s="256"/>
+      <c r="D23" s="256"/>
+      <c r="E23" s="256"/>
+      <c r="F23" s="256"/>
+      <c r="G23" s="256"/>
+      <c r="H23" s="257"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
@@ -8597,14 +8594,14 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="253"/>
-      <c r="B30" s="254"/>
-      <c r="C30" s="254"/>
-      <c r="D30" s="254"/>
-      <c r="E30" s="254"/>
-      <c r="F30" s="254"/>
-      <c r="G30" s="254"/>
-      <c r="H30" s="255"/>
+      <c r="A30" s="255"/>
+      <c r="B30" s="256"/>
+      <c r="C30" s="256"/>
+      <c r="D30" s="256"/>
+      <c r="E30" s="256"/>
+      <c r="F30" s="256"/>
+      <c r="G30" s="256"/>
+      <c r="H30" s="257"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
@@ -8835,14 +8832,14 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="253"/>
-      <c r="B41" s="254"/>
-      <c r="C41" s="254"/>
-      <c r="D41" s="254"/>
-      <c r="E41" s="254"/>
-      <c r="F41" s="254"/>
-      <c r="G41" s="254"/>
-      <c r="H41" s="255"/>
+      <c r="A41" s="255"/>
+      <c r="B41" s="256"/>
+      <c r="C41" s="256"/>
+      <c r="D41" s="256"/>
+      <c r="E41" s="256"/>
+      <c r="F41" s="256"/>
+      <c r="G41" s="256"/>
+      <c r="H41" s="257"/>
     </row>
     <row r="42" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
@@ -9654,11 +9651,6 @@
   </sheetData>
   <autoFilter ref="A9:H9"/>
   <mergeCells count="14">
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="A7:B7"/>
@@ -9668,6 +9660,11 @@
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A23:H23"/>
     <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.54" right="0.26" top="0.32" bottom="0.74" header="0.23" footer="0.17"/>
@@ -9704,59 +9701,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="G1" s="61"/>
       <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
       <c r="F2" s="236"/>
       <c r="G2" s="61"/>
       <c r="H2" s="62"/>
     </row>
     <row r="3" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="236"/>
       <c r="G3" s="61"/>
       <c r="H3" s="62"/>
     </row>
     <row r="4" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:9" s="63" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249"/>
-      <c r="B7" s="249"/>
+      <c r="A7" s="251"/>
+      <c r="B7" s="251"/>
       <c r="C7" s="277" t="s">
         <v>28</v>
       </c>
@@ -10427,58 +10424,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="F1" s="61"/>
       <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
       <c r="F2" s="61"/>
       <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="61"/>
       <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:8" s="63" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
     </row>
     <row r="6" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="251" t="s">
         <v>382</v>
       </c>
-      <c r="B7" s="249"/>
+      <c r="B7" s="251"/>
       <c r="C7" s="277" t="s">
         <v>28</v>
       </c>
@@ -10903,62 +10900,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
-      <c r="E1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
+      <c r="E1" s="247"/>
       <c r="G1" s="61"/>
       <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
       <c r="G2" s="61"/>
       <c r="H2" s="62"/>
     </row>
     <row r="3" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
+      <c r="B3" s="247"/>
       <c r="C3" s="226"/>
-      <c r="D3" s="256" t="s">
+      <c r="D3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="256"/>
-      <c r="F3" s="256"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="247"/>
       <c r="G3" s="61"/>
       <c r="H3" s="62"/>
     </row>
     <row r="4" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:9" s="63" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="251" t="s">
         <v>381</v>
       </c>
-      <c r="B7" s="249"/>
+      <c r="B7" s="251"/>
       <c r="C7" s="227"/>
       <c r="D7" s="277" t="s">
         <v>28</v>
@@ -18280,14 +18277,14 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="251" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="249"/>
-      <c r="C7" s="248" t="s">
+      <c r="B7" s="251"/>
+      <c r="C7" s="250" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="248"/>
+      <c r="D7" s="250"/>
       <c r="E7" s="269" t="s">
         <v>43</v>
       </c>
@@ -20258,6 +20255,13 @@
   </sheetData>
   <autoFilter ref="A9:H9"/>
   <mergeCells count="15">
+    <mergeCell ref="E99:H99"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E98:H98"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A60:F60"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
@@ -20266,13 +20270,6 @@
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="E99:H99"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E98:H98"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A60:F60"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.61" right="0.16" top="0.64" bottom="0.2" header="0.3" footer="0.17"/>
@@ -21978,39 +21975,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="G1" s="61"/>
       <c r="H1" s="62"/>
       <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
       <c r="G2" s="61"/>
       <c r="H2" s="62"/>
       <c r="I2" s="107"/>
     </row>
     <row r="3" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="59"/>
       <c r="G3" s="61"/>
       <c r="H3" s="62"/>
@@ -22023,17 +22020,17 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:9" s="63" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -22042,14 +22039,14 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="251" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="249"/>
-      <c r="C7" s="248" t="s">
+      <c r="B7" s="251"/>
+      <c r="C7" s="250" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="248"/>
+      <c r="D7" s="250"/>
     </row>
     <row r="8" spans="1:9" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="57"/>
@@ -22090,15 +22087,15 @@
       </c>
     </row>
     <row r="10" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="250" t="s">
+      <c r="A10" s="252" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="251"/>
-      <c r="C10" s="251"/>
-      <c r="D10" s="251"/>
-      <c r="E10" s="251"/>
-      <c r="F10" s="251"/>
-      <c r="G10" s="252"/>
+      <c r="B10" s="253"/>
+      <c r="C10" s="253"/>
+      <c r="D10" s="253"/>
+      <c r="E10" s="253"/>
+      <c r="F10" s="253"/>
+      <c r="G10" s="254"/>
       <c r="H10" s="99">
         <v>2622054</v>
       </c>
@@ -23981,15 +23978,15 @@
       </c>
     </row>
     <row r="90" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="250" t="s">
+      <c r="A90" s="252" t="s">
         <v>246</v>
       </c>
-      <c r="B90" s="251"/>
-      <c r="C90" s="251"/>
-      <c r="D90" s="251"/>
-      <c r="E90" s="251"/>
-      <c r="F90" s="251"/>
-      <c r="G90" s="252"/>
+      <c r="B90" s="253"/>
+      <c r="C90" s="253"/>
+      <c r="D90" s="253"/>
+      <c r="E90" s="253"/>
+      <c r="F90" s="253"/>
+      <c r="G90" s="254"/>
       <c r="H90" s="99">
         <f>H89</f>
         <v>2411924</v>
@@ -25065,15 +25062,15 @@
       </c>
     </row>
     <row r="136" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="253"/>
-      <c r="B136" s="254"/>
-      <c r="C136" s="254"/>
-      <c r="D136" s="254"/>
-      <c r="E136" s="254"/>
-      <c r="F136" s="254"/>
-      <c r="G136" s="254"/>
-      <c r="H136" s="254"/>
-      <c r="I136" s="255"/>
+      <c r="A136" s="255"/>
+      <c r="B136" s="256"/>
+      <c r="C136" s="256"/>
+      <c r="D136" s="256"/>
+      <c r="E136" s="256"/>
+      <c r="F136" s="256"/>
+      <c r="G136" s="256"/>
+      <c r="H136" s="256"/>
+      <c r="I136" s="257"/>
     </row>
     <row r="137" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="39"/>
@@ -26334,20 +26331,15 @@
     <row r="193" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="15"/>
       <c r="B193" s="14"/>
-      <c r="E193" s="247"/>
-      <c r="F193" s="247"/>
-      <c r="G193" s="247"/>
-      <c r="H193" s="247"/>
+      <c r="E193" s="249"/>
+      <c r="F193" s="249"/>
+      <c r="G193" s="249"/>
+      <c r="H193" s="249"/>
       <c r="I193" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A9:I9"/>
   <mergeCells count="12">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A5:I5"/>
     <mergeCell ref="E193:H193"/>
     <mergeCell ref="A188:D188"/>
     <mergeCell ref="C7:D7"/>
@@ -26355,6 +26347,11 @@
     <mergeCell ref="A90:G90"/>
     <mergeCell ref="A136:I136"/>
     <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.16" right="0.17" top="0.16" bottom="0.17" header="0.16" footer="0.16"/>
@@ -26391,58 +26388,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="F1" s="61"/>
       <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
       <c r="F2" s="61"/>
       <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="61"/>
       <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:8" s="63" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
     </row>
     <row r="6" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="251" t="s">
         <v>388</v>
       </c>
-      <c r="B7" s="249"/>
+      <c r="B7" s="251"/>
       <c r="C7" s="277" t="s">
         <v>28</v>
       </c>
@@ -26902,8 +26899,8 @@
         <v>329</v>
       </c>
       <c r="B7" s="270"/>
-      <c r="C7" s="248"/>
-      <c r="D7" s="248"/>
+      <c r="C7" s="250"/>
+      <c r="D7" s="250"/>
       <c r="E7" s="269"/>
       <c r="F7" s="269"/>
       <c r="G7" s="13"/>
@@ -27556,39 +27553,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="93"/>
       <c r="G3" s="198"/>
       <c r="H3" s="62"/>
@@ -27603,18 +27600,18 @@
       <c r="I4" s="207"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
-      <c r="J5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -27625,14 +27622,14 @@
       <c r="I6" s="207"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="251" t="s">
         <v>389</v>
       </c>
-      <c r="B7" s="249"/>
-      <c r="C7" s="248" t="s">
+      <c r="B7" s="251"/>
+      <c r="C7" s="250" t="s">
         <v>390</v>
       </c>
-      <c r="D7" s="248"/>
+      <c r="D7" s="250"/>
       <c r="E7" s="269" t="s">
         <v>29</v>
       </c>
@@ -28005,39 +28002,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="93"/>
       <c r="G3" s="198"/>
       <c r="H3" s="62"/>
@@ -28052,18 +28049,18 @@
       <c r="I4" s="207"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
-      <c r="J5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -28074,14 +28071,14 @@
       <c r="I6" s="207"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="251" t="s">
         <v>391</v>
       </c>
-      <c r="B7" s="249"/>
-      <c r="C7" s="248" t="s">
+      <c r="B7" s="251"/>
+      <c r="C7" s="250" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="248"/>
+      <c r="D7" s="250"/>
       <c r="E7" s="269" t="s">
         <v>29</v>
       </c>
@@ -28364,39 +28361,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="93"/>
       <c r="G3" s="198"/>
       <c r="H3" s="62"/>
@@ -28411,18 +28408,18 @@
       <c r="I4" s="207"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
-      <c r="J5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -28433,14 +28430,14 @@
       <c r="I6" s="207"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="251" t="s">
         <v>392</v>
       </c>
-      <c r="B7" s="249"/>
-      <c r="C7" s="248" t="s">
+      <c r="B7" s="251"/>
+      <c r="C7" s="250" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="248"/>
+      <c r="D7" s="250"/>
       <c r="E7" s="269" t="s">
         <v>29</v>
       </c>
@@ -28778,42 +28775,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
-      <c r="E1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
+      <c r="E1" s="247"/>
       <c r="G1" s="92"/>
       <c r="I1" s="62"/>
       <c r="J1" s="62"/>
     </row>
     <row r="2" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
-      <c r="H2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
+      <c r="H2" s="247"/>
       <c r="I2" s="62"/>
       <c r="J2" s="62"/>
     </row>
     <row r="3" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
+      <c r="B3" s="247"/>
       <c r="C3" s="215"/>
-      <c r="D3" s="256" t="s">
+      <c r="D3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="256"/>
-      <c r="F3" s="256"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="247"/>
       <c r="G3" s="93"/>
       <c r="H3" s="215"/>
       <c r="I3" s="62"/>
@@ -28828,19 +28825,19 @@
       <c r="J4" s="217"/>
     </row>
     <row r="5" spans="1:11" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
-      <c r="J5" s="257"/>
-      <c r="K5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
+      <c r="K5" s="248"/>
     </row>
     <row r="6" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="4"/>
@@ -28851,15 +28848,15 @@
       <c r="J6" s="217"/>
     </row>
     <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="251" t="s">
         <v>401</v>
       </c>
-      <c r="B7" s="249"/>
+      <c r="B7" s="251"/>
       <c r="C7" s="214"/>
-      <c r="D7" s="248" t="s">
+      <c r="D7" s="250" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="248"/>
+      <c r="E7" s="250"/>
       <c r="F7" s="269" t="s">
         <v>29</v>
       </c>
@@ -29439,39 +29436,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="93"/>
       <c r="G3" s="218"/>
       <c r="H3" s="62"/>
@@ -29486,18 +29483,18 @@
       <c r="I4" s="222"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
-      <c r="J5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -29508,14 +29505,14 @@
       <c r="I6" s="222"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="251" t="s">
         <v>408</v>
       </c>
-      <c r="B7" s="249"/>
-      <c r="C7" s="248" t="s">
+      <c r="B7" s="251"/>
+      <c r="C7" s="250" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="248"/>
+      <c r="D7" s="250"/>
       <c r="E7" s="269" t="s">
         <v>29</v>
       </c>
@@ -29872,39 +29869,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="93"/>
       <c r="G3" s="218"/>
       <c r="H3" s="62"/>
@@ -29919,18 +29916,18 @@
       <c r="I4" s="222"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
-      <c r="J5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -29941,14 +29938,14 @@
       <c r="I6" s="222"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="251" t="s">
         <v>409</v>
       </c>
-      <c r="B7" s="249"/>
-      <c r="C7" s="248" t="s">
+      <c r="B7" s="251"/>
+      <c r="C7" s="250" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="248"/>
+      <c r="D7" s="250"/>
       <c r="E7" s="269" t="s">
         <v>29</v>
       </c>
@@ -30277,7 +30274,7 @@
   <dimension ref="A1:BC38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C1" sqref="C1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30302,34 +30299,28 @@
         <v>50</v>
       </c>
       <c r="C1" s="90" t="s">
+        <v>441</v>
+      </c>
+      <c r="D1" s="90" t="s">
+        <v>441</v>
+      </c>
+      <c r="E1" s="90" t="s">
+        <v>441</v>
+      </c>
+      <c r="F1" s="90" t="s">
+        <v>441</v>
+      </c>
+      <c r="G1" s="90" t="s">
         <v>442</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="H1" s="90" t="s">
         <v>442</v>
       </c>
-      <c r="E1" s="90" t="s">
+      <c r="I1" s="90" t="s">
         <v>442</v>
       </c>
-      <c r="F1" s="90" t="s">
+      <c r="J1" s="90" t="s">
         <v>442</v>
-      </c>
-      <c r="G1" s="90" t="s">
-        <v>443</v>
-      </c>
-      <c r="H1" s="90" t="s">
-        <v>443</v>
-      </c>
-      <c r="I1" s="90" t="s">
-        <v>443</v>
-      </c>
-      <c r="J1" s="90" t="s">
-        <v>443</v>
-      </c>
-      <c r="K1" s="90" t="s">
-        <v>441</v>
-      </c>
-      <c r="L1" s="90" t="s">
-        <v>441</v>
       </c>
       <c r="Q1" s="90" t="s">
         <v>52</v>
@@ -31321,10 +31312,10 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="251" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="249"/>
+      <c r="B7" s="251"/>
       <c r="E7" s="185" t="s">
         <v>294</v>
       </c>
@@ -34640,65 +34631,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="G1" s="61"/>
       <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
       <c r="G2" s="61"/>
       <c r="H2" s="62"/>
     </row>
     <row r="3" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="59"/>
       <c r="G3" s="61"/>
       <c r="H3" s="62"/>
     </row>
     <row r="4" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:9" s="63" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="251" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="249"/>
-      <c r="C7" s="249" t="s">
+      <c r="B7" s="251"/>
+      <c r="C7" s="251" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="249"/>
+      <c r="D7" s="251"/>
     </row>
     <row r="8" spans="1:9" s="55" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G8" s="56"/>
@@ -34734,15 +34725,15 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="264" t="s">
+      <c r="A10" s="261" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="265"/>
-      <c r="C10" s="265"/>
-      <c r="D10" s="265"/>
-      <c r="E10" s="265"/>
-      <c r="F10" s="265"/>
-      <c r="G10" s="266"/>
+      <c r="B10" s="262"/>
+      <c r="C10" s="262"/>
+      <c r="D10" s="262"/>
+      <c r="E10" s="262"/>
+      <c r="F10" s="262"/>
+      <c r="G10" s="263"/>
       <c r="H10" s="144">
         <v>699938</v>
       </c>
@@ -36429,15 +36420,15 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="264" t="s">
+      <c r="A81" s="261" t="s">
         <v>194</v>
       </c>
-      <c r="B81" s="265"/>
-      <c r="C81" s="265"/>
-      <c r="D81" s="265"/>
-      <c r="E81" s="265"/>
-      <c r="F81" s="265"/>
-      <c r="G81" s="266"/>
+      <c r="B81" s="262"/>
+      <c r="C81" s="262"/>
+      <c r="D81" s="262"/>
+      <c r="E81" s="262"/>
+      <c r="F81" s="262"/>
+      <c r="G81" s="263"/>
       <c r="H81" s="144">
         <f>H80</f>
         <v>1800668</v>
@@ -37419,15 +37410,15 @@
       <c r="I120" s="31"/>
     </row>
     <row r="121" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="264" t="s">
+      <c r="A121" s="261" t="s">
         <v>246</v>
       </c>
-      <c r="B121" s="265"/>
-      <c r="C121" s="265"/>
-      <c r="D121" s="265"/>
-      <c r="E121" s="265"/>
-      <c r="F121" s="265"/>
-      <c r="G121" s="266"/>
+      <c r="B121" s="262"/>
+      <c r="C121" s="262"/>
+      <c r="D121" s="262"/>
+      <c r="E121" s="262"/>
+      <c r="F121" s="262"/>
+      <c r="G121" s="263"/>
       <c r="H121" s="144">
         <f>H120</f>
         <v>2586475</v>
@@ -38407,12 +38398,12 @@
       <c r="I163" s="30"/>
     </row>
     <row r="164" spans="1:9" s="37" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="261" t="s">
+      <c r="A164" s="264" t="s">
         <v>14</v>
       </c>
-      <c r="B164" s="262"/>
-      <c r="C164" s="262"/>
-      <c r="D164" s="263"/>
+      <c r="B164" s="265"/>
+      <c r="C164" s="265"/>
+      <c r="D164" s="266"/>
       <c r="E164" s="81">
         <f>SUM(E11:E163)+H10</f>
         <v>8739526.5</v>
@@ -38469,11 +38460,6 @@
   </sheetData>
   <autoFilter ref="A9:I9"/>
   <mergeCells count="12">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A10:G10"/>
     <mergeCell ref="A164:D164"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A7:B7"/>
@@ -38481,6 +38467,11 @@
     <mergeCell ref="A81:G81"/>
     <mergeCell ref="A121:G121"/>
     <mergeCell ref="I152:I153"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A10:G10"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.41" right="0.22" top="0.28000000000000003" bottom="0.15" header="0.16" footer="0.15"/>
@@ -38517,42 +38508,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
-      <c r="E1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
+      <c r="E1" s="247"/>
       <c r="G1" s="92"/>
       <c r="I1" s="62"/>
       <c r="J1" s="62"/>
     </row>
     <row r="2" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
-      <c r="H2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
+      <c r="H2" s="247"/>
       <c r="I2" s="62"/>
       <c r="J2" s="62"/>
     </row>
     <row r="3" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
+      <c r="B3" s="247"/>
       <c r="C3" s="226"/>
-      <c r="D3" s="256" t="s">
+      <c r="D3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="256"/>
-      <c r="F3" s="256"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="247"/>
       <c r="G3" s="93"/>
       <c r="H3" s="198"/>
       <c r="I3" s="62"/>
@@ -38567,19 +38558,19 @@
       <c r="J4" s="207"/>
     </row>
     <row r="5" spans="1:11" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
-      <c r="J5" s="257"/>
-      <c r="K5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
+      <c r="K5" s="248"/>
     </row>
     <row r="6" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="4"/>
@@ -38590,15 +38581,15 @@
       <c r="J6" s="207"/>
     </row>
     <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="251" t="s">
         <v>389</v>
       </c>
-      <c r="B7" s="249"/>
+      <c r="B7" s="251"/>
       <c r="C7" s="227"/>
-      <c r="D7" s="248" t="s">
+      <c r="D7" s="250" t="s">
         <v>390</v>
       </c>
-      <c r="E7" s="248"/>
+      <c r="E7" s="250"/>
       <c r="F7" s="269" t="s">
         <v>29</v>
       </c>
@@ -41492,39 +41483,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="93"/>
       <c r="G3" s="198"/>
       <c r="H3" s="62"/>
@@ -41539,18 +41530,18 @@
       <c r="I4" s="207"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
-      <c r="J5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -41561,14 +41552,14 @@
       <c r="I6" s="207"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="251" t="s">
         <v>379</v>
       </c>
-      <c r="B7" s="249"/>
-      <c r="C7" s="248" t="s">
+      <c r="B7" s="251"/>
+      <c r="C7" s="250" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="248"/>
+      <c r="D7" s="250"/>
       <c r="E7" s="269" t="s">
         <v>29</v>
       </c>
@@ -42357,39 +42348,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="93"/>
       <c r="G3" s="218"/>
       <c r="H3" s="62"/>
@@ -42404,18 +42395,18 @@
       <c r="I4" s="222"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
-      <c r="J5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -42426,14 +42417,14 @@
       <c r="I6" s="222"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="251" t="s">
         <v>403</v>
       </c>
-      <c r="B7" s="249"/>
-      <c r="C7" s="248" t="s">
+      <c r="B7" s="251"/>
+      <c r="C7" s="250" t="s">
         <v>404</v>
       </c>
-      <c r="D7" s="248"/>
+      <c r="D7" s="250"/>
       <c r="E7" s="269" t="s">
         <v>29</v>
       </c>

--- a/SO SACH - LA/CONG NO/Cong no NL ca.xlsx
+++ b/SO SACH - LA/CONG NO/Cong no NL ca.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="14940" windowHeight="8745" tabRatio="968" firstSheet="13" activeTab="27"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="14940" windowHeight="8745" tabRatio="968" firstSheet="7" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="T.KẾT" sheetId="26" r:id="rId1"/>
@@ -38,6 +38,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId29"/>
+    <externalReference r:id="rId30"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">'6 NHẦM'!$A$9:$I$9</definedName>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2251" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="445">
   <si>
     <t xml:space="preserve">NGÀY </t>
   </si>
@@ -1421,9 +1422,6 @@
     <t>NAM (C.ViỆT)</t>
   </si>
   <si>
-    <t>Mai tẩm xẻ</t>
-  </si>
-  <si>
     <t>NAM C.VIỆT</t>
   </si>
   <si>
@@ -1513,6 +1511,15 @@
   <si>
     <t>TÂM
 VT</t>
+  </si>
+  <si>
+    <t>Bò file tẩm N</t>
+  </si>
+  <si>
+    <t>GC phơi</t>
+  </si>
+  <si>
+    <t>Làm sạch</t>
   </si>
 </sst>
 </file>
@@ -2995,10 +3002,30 @@
       <definedName name="VND"/>
     </definedNames>
     <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="uniBase"/>
+      <sheetName val="vniBase"/>
+      <sheetName val="abcBase"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="VND"/>
+    </definedNames>
+    <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
-      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3481,11 +3508,11 @@
         <v>6</v>
       </c>
       <c r="B9" s="150" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C9" s="151">
-        <f>'NAM CV'!$G$17</f>
-        <v>193050</v>
+        <f>'NAM CV'!$G$20</f>
+        <v>280814.67999999993</v>
       </c>
       <c r="E9" s="149" t="str">
         <f t="array" ref="E9">IF(G9&lt;&gt;0,SUM(($G$4:G9&lt;&gt;0)*1),"")</f>
@@ -3538,7 +3565,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="150" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C12" s="151">
         <f>'DANH BL'!$H$26</f>
@@ -3595,7 +3622,7 @@
         <v/>
       </c>
       <c r="B15" s="150" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C15" s="151">
         <f>'LEE CÁ BÒ'!$H$36</f>
@@ -3693,8 +3720,8 @@
         <v>368</v>
       </c>
       <c r="C20" s="151">
-        <f>D.ĐIỂM!$G$93</f>
-        <v>801305.29999999981</v>
+        <f>D.ĐIỂM!$G$99</f>
+        <v>1014581.7000000002</v>
       </c>
       <c r="E20" s="149" t="str">
         <f t="array" ref="E20">IF(G20&lt;&gt;0,SUM(($G$4:G20&lt;&gt;0)*1),"")</f>
@@ -3916,7 +3943,7 @@
       <c r="B35" s="246"/>
       <c r="C35" s="213">
         <f>SUM(C4:C34)</f>
-        <v>5397541.5</v>
+        <v>5698582.5800000001</v>
       </c>
       <c r="E35" s="246" t="s">
         <v>14</v>
@@ -4036,7 +4063,7 @@
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="251" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B7" s="251"/>
       <c r="C7" s="250"/>
@@ -9352,7 +9379,7 @@
         <v>42314</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C64" s="26">
         <v>550</v>
@@ -9782,7 +9809,7 @@
         <v>71</v>
       </c>
       <c r="F9" s="72" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G9" s="73" t="s">
         <v>15</v>
@@ -9799,7 +9826,7 @@
         <v>42318</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C10" s="26">
         <v>2970</v>
@@ -9822,7 +9849,7 @@
     <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="31" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C11" s="26">
         <v>30</v>
@@ -9845,7 +9872,7 @@
     <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="31" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C12" s="26">
         <v>700</v>
@@ -9870,7 +9897,7 @@
         <v>42319</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C13" s="26">
         <v>870</v>
@@ -9895,7 +9922,7 @@
         <v>42310</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="27"/>
@@ -10042,7 +10069,7 @@
     <row r="20" spans="1:9" s="241" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="237"/>
       <c r="B20" s="238" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C20" s="239">
         <v>10</v>
@@ -10065,7 +10092,7 @@
     <row r="21" spans="1:9" s="241" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="237"/>
       <c r="B21" s="238" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C21" s="239">
         <v>10.95</v>
@@ -10088,7 +10115,7 @@
     <row r="22" spans="1:9" s="241" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="237"/>
       <c r="B22" s="238" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C22" s="239">
         <v>50</v>
@@ -10111,7 +10138,7 @@
     <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24"/>
       <c r="B23" s="238" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C23" s="239">
         <v>25</v>
@@ -10134,7 +10161,7 @@
     <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="243"/>
       <c r="B24" s="244" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C24" s="245">
         <v>1597</v>
@@ -11365,7 +11392,7 @@
     <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
       <c r="B24" s="31" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C24" s="31" t="s">
         <v>394</v>
@@ -11390,7 +11417,7 @@
     <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
       <c r="B25" s="31" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C25" s="31" t="s">
         <v>394</v>
@@ -11415,7 +11442,7 @@
     <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24"/>
       <c r="B26" s="31" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C26" s="31" t="s">
         <v>394</v>
@@ -11721,7 +11748,7 @@
         <v>42356</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C38" s="31" t="s">
         <v>394</v>
@@ -16601,7 +16628,7 @@
     <row r="187" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="18"/>
       <c r="B187" s="16" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C187" s="16" t="s">
         <v>44</v>
@@ -16627,7 +16654,7 @@
     <row r="188" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="18"/>
       <c r="B188" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C188" s="16" t="s">
         <v>44</v>
@@ -17096,7 +17123,7 @@
         <v>42347</v>
       </c>
       <c r="B205" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C205" s="16" t="s">
         <v>75</v>
@@ -17312,7 +17339,7 @@
     <row r="213" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="18"/>
       <c r="B213" s="16" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C213" s="16" t="s">
         <v>394</v>
@@ -17366,7 +17393,7 @@
     </row>
     <row r="215" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="274" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B215" s="275"/>
       <c r="C215" s="275"/>
@@ -18190,19 +18217,19 @@
   <sheetPr codeName="Sheet17" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D75" sqref="D75"/>
-      <selection pane="bottomLeft" activeCell="F84" sqref="F84"/>
+      <selection pane="bottomLeft" activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="4" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="5" customWidth="1"/>
     <col min="4" max="4" width="10" style="6" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" style="6" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" style="9" customWidth="1"/>
@@ -18326,7 +18353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="49" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="283" t="s">
         <v>77</v>
       </c>
@@ -18341,7 +18368,7 @@
       <c r="H10" s="48"/>
       <c r="I10" s="77"/>
     </row>
-    <row r="11" spans="1:9" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="25" t="s">
         <v>17</v>
@@ -18363,7 +18390,7 @@
         <v>41332</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="25" t="s">
         <v>17</v>
@@ -18383,7 +18410,7 @@
         <v>41355</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>41334</v>
       </c>
@@ -18407,7 +18434,7 @@
       </c>
       <c r="H13" s="31"/>
     </row>
-    <row r="14" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="31" t="s">
         <v>79</v>
@@ -18429,7 +18456,7 @@
       </c>
       <c r="H14" s="31"/>
     </row>
-    <row r="15" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>41334</v>
       </c>
@@ -18453,7 +18480,7 @@
       </c>
       <c r="H15" s="31"/>
     </row>
-    <row r="16" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="25" t="s">
         <v>60</v>
@@ -18475,7 +18502,7 @@
       </c>
       <c r="H16" s="31"/>
     </row>
-    <row r="17" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>41331</v>
       </c>
@@ -18499,7 +18526,7 @@
       </c>
       <c r="H17" s="31"/>
     </row>
-    <row r="18" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="31" t="s">
         <v>79</v>
@@ -18521,7 +18548,7 @@
       </c>
       <c r="H18" s="31"/>
     </row>
-    <row r="19" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>41340</v>
       </c>
@@ -18546,7 +18573,7 @@
       <c r="H19" s="31"/>
       <c r="I19" s="122"/>
     </row>
-    <row r="20" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="B20" s="25" t="s">
         <v>17</v>
@@ -18565,7 +18592,7 @@
         <v>41367</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>41369</v>
       </c>
@@ -18589,7 +18616,7 @@
       </c>
       <c r="H21" s="31"/>
     </row>
-    <row r="22" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
       <c r="B22" s="25" t="s">
         <v>60</v>
@@ -18611,7 +18638,7 @@
       </c>
       <c r="H22" s="31"/>
     </row>
-    <row r="23" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24"/>
       <c r="B23" s="25" t="s">
         <v>17</v>
@@ -18630,7 +18657,7 @@
         <v>41382</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
       <c r="B24" s="25" t="s">
         <v>17</v>
@@ -18652,7 +18679,7 @@
         <v>41403</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
       <c r="B25" s="25" t="s">
         <v>17</v>
@@ -18674,7 +18701,7 @@
         <v>41447</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24"/>
       <c r="B26" s="25" t="s">
         <v>17</v>
@@ -18697,7 +18724,7 @@
         <v>41465</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>41456</v>
       </c>
@@ -18721,7 +18748,7 @@
       </c>
       <c r="H27" s="31"/>
     </row>
-    <row r="28" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24"/>
       <c r="B28" s="31" t="s">
         <v>78</v>
@@ -18743,7 +18770,7 @@
       </c>
       <c r="H28" s="31"/>
     </row>
-    <row r="29" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>41460</v>
       </c>
@@ -18767,7 +18794,7 @@
       </c>
       <c r="H29" s="31"/>
     </row>
-    <row r="30" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24"/>
       <c r="B30" s="25" t="s">
         <v>60</v>
@@ -18789,7 +18816,7 @@
       </c>
       <c r="H30" s="31"/>
     </row>
-    <row r="31" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24"/>
       <c r="B31" s="25" t="s">
         <v>59</v>
@@ -18811,7 +18838,7 @@
       </c>
       <c r="H31" s="31"/>
     </row>
-    <row r="32" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>41369</v>
       </c>
@@ -18835,7 +18862,7 @@
       </c>
       <c r="H32" s="31"/>
     </row>
-    <row r="33" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
       <c r="B33" s="25" t="s">
         <v>17</v>
@@ -18857,7 +18884,7 @@
         <v>41474</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="24"/>
       <c r="B34" s="25" t="s">
         <v>17</v>
@@ -18879,7 +18906,7 @@
         <v>41500</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>41512</v>
       </c>
@@ -18903,7 +18930,7 @@
       </c>
       <c r="H35" s="31"/>
     </row>
-    <row r="36" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
       <c r="B36" s="25" t="s">
         <v>17</v>
@@ -18925,7 +18952,7 @@
         <v>41522</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24"/>
       <c r="B37" s="25" t="s">
         <v>188</v>
@@ -18945,7 +18972,7 @@
       </c>
       <c r="H37" s="30"/>
     </row>
-    <row r="38" spans="1:9" s="49" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="283" t="s">
         <v>246</v>
       </c>
@@ -18961,7 +18988,7 @@
       <c r="H38" s="48"/>
       <c r="I38" s="77"/>
     </row>
-    <row r="39" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24"/>
       <c r="B39" s="25" t="s">
         <v>17</v>
@@ -18984,7 +19011,7 @@
         <v>41654</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>41639</v>
       </c>
@@ -19008,7 +19035,7 @@
       </c>
       <c r="H40" s="31"/>
     </row>
-    <row r="41" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24"/>
       <c r="B41" s="31" t="s">
         <v>207</v>
@@ -19030,7 +19057,7 @@
       </c>
       <c r="H41" s="31"/>
     </row>
-    <row r="42" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <v>41647</v>
       </c>
@@ -19054,7 +19081,7 @@
       </c>
       <c r="H42" s="31"/>
     </row>
-    <row r="43" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24"/>
       <c r="B43" s="31" t="s">
         <v>79</v>
@@ -19076,7 +19103,7 @@
       </c>
       <c r="H43" s="31"/>
     </row>
-    <row r="44" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="24"/>
       <c r="B44" s="31" t="s">
         <v>79</v>
@@ -19098,7 +19125,7 @@
       </c>
       <c r="H44" s="31"/>
     </row>
-    <row r="45" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <v>41655</v>
       </c>
@@ -19122,7 +19149,7 @@
       </c>
       <c r="H45" s="31"/>
     </row>
-    <row r="46" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="24"/>
       <c r="B46" s="25" t="s">
         <v>17</v>
@@ -19144,7 +19171,7 @@
         <v>41736</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24"/>
       <c r="B47" s="25" t="s">
         <v>253</v>
@@ -19166,7 +19193,7 @@
         <v>41696</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
         <v>41696</v>
       </c>
@@ -19190,7 +19217,7 @@
       </c>
       <c r="H48" s="31"/>
     </row>
-    <row r="49" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="24">
         <v>41697</v>
       </c>
@@ -19214,7 +19241,7 @@
       </c>
       <c r="H49" s="31"/>
     </row>
-    <row r="50" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="24">
         <v>41699</v>
       </c>
@@ -19238,7 +19265,7 @@
       </c>
       <c r="H50" s="31"/>
     </row>
-    <row r="51" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <v>41699</v>
       </c>
@@ -19262,7 +19289,7 @@
       </c>
       <c r="H51" s="31"/>
     </row>
-    <row r="52" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="24"/>
       <c r="B52" s="25" t="s">
         <v>17</v>
@@ -19284,7 +19311,7 @@
         <v>41736</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="24"/>
       <c r="B53" s="25" t="s">
         <v>17</v>
@@ -19307,7 +19334,7 @@
         <v>41780</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
         <v>41816</v>
       </c>
@@ -19331,7 +19358,7 @@
       </c>
       <c r="H54" s="31"/>
     </row>
-    <row r="55" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
         <v>41824</v>
       </c>
@@ -19355,7 +19382,7 @@
       </c>
       <c r="H55" s="31"/>
     </row>
-    <row r="56" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="24"/>
       <c r="B56" s="25" t="s">
         <v>17</v>
@@ -19377,7 +19404,7 @@
         <v>41850</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>
       <c r="B57" s="25" t="s">
         <v>17</v>
@@ -19399,7 +19426,7 @@
         <v>41872</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="24"/>
       <c r="B58" s="25" t="s">
         <v>17</v>
@@ -19421,7 +19448,7 @@
       </c>
       <c r="H58" s="31"/>
     </row>
-    <row r="59" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="24"/>
       <c r="B59" s="25" t="s">
         <v>17</v>
@@ -19444,7 +19471,7 @@
         <v>41899</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="49" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="283" t="s">
         <v>373</v>
       </c>
@@ -19670,7 +19697,7 @@
       <c r="C69" s="26"/>
       <c r="D69" s="27"/>
       <c r="E69" s="27">
-        <f t="shared" ref="E69:E92" si="6">C69*D69</f>
+        <f t="shared" ref="E69:E98" si="6">C69*D69</f>
         <v>0</v>
       </c>
       <c r="F69" s="29">
@@ -19938,7 +19965,7 @@
     <row r="80" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="24"/>
       <c r="B80" s="31" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C80" s="26">
         <v>2277</v>
@@ -19952,14 +19979,14 @@
       </c>
       <c r="F80" s="29"/>
       <c r="G80" s="27">
-        <f t="shared" ref="G80:G92" si="7">IF(B80&lt;&gt;"",G79+E80-F80,0)</f>
+        <f t="shared" ref="G80:G98" si="7">IF(B80&lt;&gt;"",G79+E80-F80,0)</f>
         <v>865685.3</v>
       </c>
       <c r="H80" s="31" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="24">
         <v>42343</v>
       </c>
@@ -19985,7 +20012,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="24">
         <v>42348</v>
       </c>
@@ -19999,169 +20026,223 @@
         <v>48.5</v>
       </c>
       <c r="E82" s="27">
-        <f t="shared" ref="E82:E91" si="8">C82*D82</f>
+        <f t="shared" si="6"/>
         <v>242500</v>
       </c>
       <c r="F82" s="29"/>
       <c r="G82" s="27">
-        <f t="shared" ref="G82:G91" si="9">IF(B82&lt;&gt;"",G81+E82-F82,0)</f>
+        <f t="shared" ref="G82:G97" si="8">IF(B82&lt;&gt;"",G81+E82-F82,0)</f>
         <v>1201305.3</v>
       </c>
       <c r="H82" s="24" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="24">
-        <v>42360</v>
+        <v>42373</v>
       </c>
       <c r="B83" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C83" s="26"/>
-      <c r="D83" s="27"/>
+        <v>248</v>
+      </c>
+      <c r="C83" s="26">
+        <v>6519</v>
+      </c>
+      <c r="D83" s="27">
+        <v>6</v>
+      </c>
       <c r="E83" s="27">
+        <f t="shared" si="6"/>
+        <v>39114</v>
+      </c>
+      <c r="F83" s="29"/>
+      <c r="G83" s="27">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F83" s="29">
-        <v>400000</v>
-      </c>
-      <c r="G83" s="27">
-        <f t="shared" si="9"/>
-        <v>801305.3</v>
+        <v>1240419.3</v>
       </c>
       <c r="H83" s="24"/>
     </row>
-    <row r="84" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="24"/>
-      <c r="B84" s="31"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="27"/>
+    <row r="84" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="24">
+        <v>42374</v>
+      </c>
+      <c r="B84" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="C84" s="26">
+        <v>6394</v>
+      </c>
+      <c r="D84" s="27">
+        <v>5.6</v>
+      </c>
       <c r="E84" s="27">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>35806.399999999994</v>
       </c>
       <c r="F84" s="29"/>
       <c r="G84" s="27">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1276225.7</v>
       </c>
       <c r="H84" s="24"/>
     </row>
-    <row r="85" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="24"/>
-      <c r="B85" s="31"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="27"/>
+    <row r="85" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="24">
+        <v>42375</v>
+      </c>
+      <c r="B85" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="C85" s="26">
+        <v>6709</v>
+      </c>
+      <c r="D85" s="27">
+        <v>5.6</v>
+      </c>
       <c r="E85" s="27">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>37570.399999999994</v>
       </c>
       <c r="F85" s="29"/>
       <c r="G85" s="27">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1313796.0999999999</v>
       </c>
       <c r="H85" s="24"/>
     </row>
-    <row r="86" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="24"/>
-      <c r="B86" s="31"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="27"/>
+    <row r="86" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="24">
+        <v>42376</v>
+      </c>
+      <c r="B86" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="C86" s="26">
+        <v>9017</v>
+      </c>
+      <c r="D86" s="27">
+        <v>5.8</v>
+      </c>
       <c r="E86" s="27">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>52298.6</v>
       </c>
       <c r="F86" s="29"/>
       <c r="G86" s="27">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1366094.7</v>
       </c>
       <c r="H86" s="24"/>
     </row>
-    <row r="87" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="24"/>
-      <c r="B87" s="31"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="27"/>
+    <row r="87" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="24">
+        <v>42389</v>
+      </c>
+      <c r="B87" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="C87" s="26">
+        <v>17322</v>
+      </c>
+      <c r="D87" s="27">
+        <v>6.5</v>
+      </c>
       <c r="E87" s="27">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>112593</v>
       </c>
       <c r="F87" s="29"/>
       <c r="G87" s="27">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1478687.7</v>
       </c>
       <c r="H87" s="24"/>
     </row>
-    <row r="88" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="24"/>
-      <c r="B88" s="31"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="27"/>
+    <row r="88" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="24">
+        <v>42390</v>
+      </c>
+      <c r="B88" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="C88" s="26">
+        <v>22649</v>
+      </c>
+      <c r="D88" s="27">
+        <v>6</v>
+      </c>
       <c r="E88" s="27">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>135894</v>
       </c>
       <c r="F88" s="29"/>
       <c r="G88" s="27">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1614581.7</v>
       </c>
       <c r="H88" s="24"/>
     </row>
-    <row r="89" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="24"/>
-      <c r="B89" s="31"/>
+    <row r="89" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="24">
+        <v>42360</v>
+      </c>
+      <c r="B89" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="C89" s="26"/>
       <c r="D89" s="27"/>
       <c r="E89" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F89" s="29">
+        <v>400000</v>
+      </c>
+      <c r="G89" s="27">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F89" s="29"/>
-      <c r="G89" s="27">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1214581.7</v>
       </c>
       <c r="H89" s="24"/>
     </row>
-    <row r="90" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="24"/>
-      <c r="B90" s="31"/>
+    <row r="90" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="24">
+        <v>42374</v>
+      </c>
+      <c r="B90" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="C90" s="26"/>
       <c r="D90" s="27"/>
       <c r="E90" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F90" s="29">
+        <v>200000</v>
+      </c>
+      <c r="G90" s="27">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F90" s="29"/>
-      <c r="G90" s="27">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1014581.7</v>
       </c>
       <c r="H90" s="24"/>
     </row>
-    <row r="91" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="24"/>
       <c r="B91" s="31"/>
       <c r="C91" s="26"/>
       <c r="D91" s="27"/>
       <c r="E91" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F91" s="29"/>
       <c r="G91" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H91" s="24"/>
     </row>
-    <row r="92" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="24"/>
       <c r="B92" s="31"/>
       <c r="C92" s="26"/>
@@ -20172,94 +20253,190 @@
       </c>
       <c r="F92" s="29"/>
       <c r="G92" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H92" s="24"/>
+    </row>
+    <row r="93" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="24"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="27">
+        <f t="shared" ref="E93:E97" si="9">C93*D93</f>
+        <v>0</v>
+      </c>
+      <c r="F93" s="29"/>
+      <c r="G93" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H93" s="24"/>
+    </row>
+    <row r="94" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="24"/>
+      <c r="B94" s="31"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F94" s="29"/>
+      <c r="G94" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H94" s="24"/>
+    </row>
+    <row r="95" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="24"/>
+      <c r="B95" s="31"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F95" s="29"/>
+      <c r="G95" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H95" s="24"/>
+    </row>
+    <row r="96" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="24"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="27"/>
+      <c r="E96" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F96" s="29"/>
+      <c r="G96" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H96" s="24"/>
+    </row>
+    <row r="97" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="24"/>
+      <c r="B97" s="31"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F97" s="29"/>
+      <c r="G97" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H97" s="24"/>
+    </row>
+    <row r="98" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="24"/>
+      <c r="B98" s="31"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F98" s="29"/>
+      <c r="G98" s="27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H92" s="24"/>
-    </row>
-    <row r="93" spans="1:9" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="246" t="s">
+      <c r="H98" s="24"/>
+    </row>
+    <row r="99" spans="1:9" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="B93" s="246"/>
-      <c r="C93" s="246"/>
-      <c r="D93" s="246"/>
-      <c r="E93" s="68">
-        <f>SUM(E11:E92)+G10</f>
-        <v>5820482.2000000002</v>
-      </c>
-      <c r="F93" s="68">
-        <f>SUM(F11:F92)+H10</f>
-        <v>5019176.9000000004</v>
-      </c>
-      <c r="G93" s="68">
-        <f>(E93-F93)</f>
-        <v>801305.29999999981</v>
-      </c>
-      <c r="H93" s="69"/>
-    </row>
-    <row r="95" spans="1:9" s="111" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="108"/>
-      <c r="B95" s="114" t="s">
+      <c r="B99" s="246"/>
+      <c r="C99" s="246"/>
+      <c r="D99" s="246"/>
+      <c r="E99" s="68">
+        <f>SUM(E11:E98)+G10</f>
+        <v>6233758.6000000006</v>
+      </c>
+      <c r="F99" s="68">
+        <f>SUM(F11:F98)+H10</f>
+        <v>5219176.9000000004</v>
+      </c>
+      <c r="G99" s="68">
+        <f>(E99-F99)</f>
+        <v>1014581.7000000002</v>
+      </c>
+      <c r="H99" s="69"/>
+    </row>
+    <row r="101" spans="1:9" s="111" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="108"/>
+      <c r="B101" s="114" t="s">
         <v>95</v>
       </c>
-      <c r="C95" s="109"/>
-      <c r="D95" s="110"/>
-      <c r="E95" s="285">
-        <f>G93*1000</f>
-        <v>801305299.99999976</v>
-      </c>
-      <c r="F95" s="285"/>
-      <c r="G95" s="115" t="s">
+      <c r="C101" s="109"/>
+      <c r="D101" s="110"/>
+      <c r="E101" s="285">
+        <f>G99*1000</f>
+        <v>1014581700.0000002</v>
+      </c>
+      <c r="F101" s="285"/>
+      <c r="G101" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="H95" s="110"/>
-      <c r="I95" s="110"/>
-    </row>
-    <row r="96" spans="1:9" s="111" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="108"/>
-      <c r="B96" s="114" t="s">
+      <c r="H101" s="110"/>
+      <c r="I101" s="110"/>
+    </row>
+    <row r="102" spans="1:9" s="111" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="108"/>
+      <c r="B102" s="114" t="s">
         <v>85</v>
       </c>
-      <c r="C96" s="112" t="e">
-        <f ca="1">[1]!VND(E95, TRUE)</f>
+      <c r="C102" s="112" t="e">
+        <f ca="1">[1]!VND(E101, TRUE)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D96" s="110"/>
-      <c r="E96" s="110"/>
-      <c r="F96" s="113"/>
-      <c r="G96" s="110"/>
-      <c r="H96" s="110"/>
-      <c r="I96" s="110"/>
-    </row>
-    <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E98" s="286" t="s">
+      <c r="D102" s="110"/>
+      <c r="E102" s="110"/>
+      <c r="F102" s="113"/>
+      <c r="G102" s="110"/>
+      <c r="H102" s="110"/>
+      <c r="I102" s="110"/>
+    </row>
+    <row r="104" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E104" s="286" t="s">
         <v>89</v>
       </c>
-      <c r="F98" s="286"/>
-      <c r="G98" s="286"/>
-      <c r="H98" s="286"/>
-    </row>
-    <row r="99" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="15" t="s">
+      <c r="F104" s="286"/>
+      <c r="G104" s="286"/>
+      <c r="H104" s="286"/>
+    </row>
+    <row r="105" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B99" s="14"/>
-      <c r="E99" s="282" t="s">
+      <c r="B105" s="14"/>
+      <c r="E105" s="282" t="s">
         <v>82</v>
       </c>
-      <c r="F99" s="282"/>
-      <c r="G99" s="282"/>
-      <c r="H99" s="282"/>
+      <c r="F105" s="282"/>
+      <c r="G105" s="282"/>
+      <c r="H105" s="282"/>
     </row>
   </sheetData>
   <autoFilter ref="A9:H9"/>
   <mergeCells count="15">
-    <mergeCell ref="E99:H99"/>
-    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="E105:H105"/>
+    <mergeCell ref="A99:D99"/>
     <mergeCell ref="A10:F10"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E98:H98"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E104:H104"/>
     <mergeCell ref="A38:F38"/>
     <mergeCell ref="A60:F60"/>
     <mergeCell ref="A5:H5"/>
@@ -29122,7 +29299,7 @@
         <v>42332</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C18" s="31" t="s">
         <v>332</v>
@@ -30273,7 +30450,7 @@
   </sheetPr>
   <dimension ref="A1:BC38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:F1"/>
     </sheetView>
   </sheetViews>
@@ -30299,28 +30476,28 @@
         <v>50</v>
       </c>
       <c r="C1" s="90" t="s">
+        <v>440</v>
+      </c>
+      <c r="D1" s="90" t="s">
+        <v>440</v>
+      </c>
+      <c r="E1" s="90" t="s">
+        <v>440</v>
+      </c>
+      <c r="F1" s="90" t="s">
+        <v>440</v>
+      </c>
+      <c r="G1" s="90" t="s">
         <v>441</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="H1" s="90" t="s">
         <v>441</v>
       </c>
-      <c r="E1" s="90" t="s">
+      <c r="I1" s="90" t="s">
         <v>441</v>
       </c>
-      <c r="F1" s="90" t="s">
+      <c r="J1" s="90" t="s">
         <v>441</v>
-      </c>
-      <c r="G1" s="90" t="s">
-        <v>442</v>
-      </c>
-      <c r="H1" s="90" t="s">
-        <v>442</v>
-      </c>
-      <c r="I1" s="90" t="s">
-        <v>442</v>
-      </c>
-      <c r="J1" s="90" t="s">
-        <v>442</v>
       </c>
       <c r="Q1" s="90" t="s">
         <v>52</v>
@@ -30972,13 +31149,13 @@
       <c r="M23" s="141"/>
       <c r="N23" s="141"/>
       <c r="O23" s="157" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="P23" s="157" t="s">
         <v>192</v>
       </c>
       <c r="Q23" s="157" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AL23" s="137" t="s">
         <v>141</v>
@@ -34349,7 +34526,7 @@
         <v>42347</v>
       </c>
       <c r="B141" s="31" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C141" s="26">
         <v>1050</v>
@@ -41124,12 +41301,12 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A184" sqref="A184"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -41247,201 +41424,267 @@
     </row>
     <row r="10" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
-        <v>42322</v>
+        <v>42390</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>413</v>
+        <v>442</v>
       </c>
       <c r="C10" s="20">
-        <v>10</v>
+        <v>958</v>
       </c>
       <c r="D10" s="19">
-        <v>135</v>
+        <f>10.2*22.3</f>
+        <v>227.45999999999998</v>
       </c>
       <c r="E10" s="27">
         <f>C10*D10</f>
-        <v>1350</v>
+        <v>217906.68</v>
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="27">
         <f>IF(B10&lt;&gt;"",E10-F10,0)</f>
-        <v>1350</v>
+        <v>217906.68</v>
       </c>
       <c r="H10" s="30"/>
     </row>
     <row r="11" spans="1:9" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
-        <v>42326</v>
-      </c>
+      <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
-        <v>413</v>
+        <v>21</v>
       </c>
       <c r="C11" s="26">
-        <v>1350</v>
+        <v>1000</v>
       </c>
       <c r="D11" s="19">
-        <v>135</v>
+        <f t="shared" ref="D11:D12" si="0">10.2*22.3</f>
+        <v>227.45999999999998</v>
       </c>
       <c r="E11" s="27">
         <f>C11*D11</f>
-        <v>182250</v>
+        <v>227459.99999999997</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="27">
         <f>IF(B11&lt;&gt;"",G10+E11-F11,0)</f>
-        <v>183600</v>
+        <v>445366.67999999993</v>
       </c>
       <c r="H11" s="30"/>
     </row>
     <row r="12" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
+      <c r="A12" s="18">
+        <v>42395</v>
+      </c>
       <c r="B12" s="16" t="s">
-        <v>413</v>
+        <v>21</v>
       </c>
       <c r="C12" s="20">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="D12" s="19">
-        <v>135</v>
+        <f t="shared" si="0"/>
+        <v>227.45999999999998</v>
       </c>
       <c r="E12" s="27">
-        <f t="shared" ref="E12:E16" si="0">C12*D12</f>
-        <v>9450</v>
+        <f t="shared" ref="E12:E19" si="1">C12*D12</f>
+        <v>68238</v>
       </c>
       <c r="F12" s="29"/>
       <c r="G12" s="27">
-        <f t="shared" ref="G12:G16" si="1">IF(B12&lt;&gt;"",G11+E12-F12,0)</f>
-        <v>193050</v>
+        <f t="shared" ref="G12:G19" si="2">IF(B12&lt;&gt;"",G11+E12-F12,0)</f>
+        <v>513604.67999999993</v>
       </c>
       <c r="H12" s="30"/>
     </row>
     <row r="13" spans="1:9" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="29"/>
+      <c r="A13" s="243"/>
+      <c r="B13" s="244" t="s">
+        <v>443</v>
+      </c>
+      <c r="C13" s="245">
+        <v>2300</v>
+      </c>
+      <c r="D13" s="223">
+        <v>10</v>
+      </c>
+      <c r="E13" s="223"/>
+      <c r="F13" s="223">
+        <f>C13*D13</f>
+        <v>23000</v>
+      </c>
       <c r="G13" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>490604.67999999993</v>
       </c>
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="29"/>
+      <c r="A14" s="243"/>
+      <c r="B14" s="244" t="s">
+        <v>444</v>
+      </c>
+      <c r="C14" s="245">
+        <v>1958</v>
+      </c>
+      <c r="D14" s="223">
+        <v>5</v>
+      </c>
+      <c r="E14" s="223"/>
+      <c r="F14" s="223">
+        <f>C14*D14</f>
+        <v>9790</v>
+      </c>
       <c r="G14" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>480814.67999999993</v>
       </c>
       <c r="H14" s="30"/>
     </row>
     <row r="15" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="29"/>
+      <c r="A15" s="18">
+        <v>42399</v>
+      </c>
+      <c r="B15" s="244" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="245"/>
+      <c r="D15" s="223"/>
+      <c r="E15" s="223"/>
+      <c r="F15" s="223">
+        <v>200000</v>
+      </c>
       <c r="G15" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="G15:G18" si="3">IF(B15&lt;&gt;"",G14+E15-F15,0)</f>
+        <v>280814.67999999993</v>
       </c>
       <c r="H15" s="30"/>
     </row>
     <row r="16" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="166"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="168"/>
-      <c r="E16" s="19">
-        <f t="shared" si="0"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="27">
+        <f t="shared" ref="E16:E18" si="4">C16*D16</f>
         <v>0</v>
       </c>
       <c r="F16" s="29"/>
       <c r="G16" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="30"/>
+    </row>
+    <row r="17" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="29"/>
+      <c r="G17" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="30"/>
+    </row>
+    <row r="18" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="30"/>
+    </row>
+    <row r="19" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="166"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="167"/>
+      <c r="D19" s="168"/>
+      <c r="E19" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H16" s="30"/>
-    </row>
-    <row r="17" spans="1:9" s="230" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="271" t="s">
+      <c r="F19" s="29"/>
+      <c r="G19" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="30"/>
+    </row>
+    <row r="20" spans="1:9" s="230" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="271" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="271"/>
-      <c r="C17" s="271"/>
-      <c r="D17" s="271"/>
-      <c r="E17" s="170">
-        <f>SUM(E10:E16)</f>
-        <v>193050</v>
-      </c>
-      <c r="F17" s="180">
-        <f>SUM(F10:F16)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="171">
-        <f>E17-F17</f>
-        <v>193050</v>
-      </c>
-      <c r="H17" s="231"/>
-    </row>
-    <row r="18" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="11"/>
-      <c r="G18" s="208"/>
-    </row>
-    <row r="19" spans="1:9" s="111" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="108"/>
-      <c r="B19" s="114" t="s">
+      <c r="B20" s="271"/>
+      <c r="C20" s="271"/>
+      <c r="D20" s="271"/>
+      <c r="E20" s="170">
+        <f>SUM(E10:E19)</f>
+        <v>513604.67999999993</v>
+      </c>
+      <c r="F20" s="180">
+        <f>SUM(F10:F19)</f>
+        <v>232790</v>
+      </c>
+      <c r="G20" s="171">
+        <f>E20-F20</f>
+        <v>280814.67999999993</v>
+      </c>
+      <c r="H20" s="231"/>
+    </row>
+    <row r="21" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="11"/>
+      <c r="G21" s="208"/>
+    </row>
+    <row r="22" spans="1:9" s="111" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="108"/>
+      <c r="B22" s="114" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="109"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="128">
-        <f>G17*1000</f>
-        <v>193050000</v>
-      </c>
-      <c r="F19" s="181" t="s">
+      <c r="C22" s="109"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="128">
+        <f>G20*1000</f>
+        <v>280814679.99999994</v>
+      </c>
+      <c r="F22" s="181" t="s">
         <v>84</v>
       </c>
-      <c r="G19" s="115"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="110"/>
-    </row>
-    <row r="20" spans="1:9" s="111" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="108"/>
-      <c r="B20" s="114" t="s">
+      <c r="G22" s="115"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="110"/>
+    </row>
+    <row r="23" spans="1:9" s="111" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="108"/>
+      <c r="B23" s="114" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="112" t="e">
-        <f ca="1">[1]!VND(E19, TRUE)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="182"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="110"/>
+      <c r="C23" s="112" t="str">
+        <f>[2]!VND(E22, TRUE)</f>
+        <v>Hai trăm tám mươi triệu, tám trăm mười bốn ngàn, sáu trăm tám mươi đồng</v>
+      </c>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="182"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="110"/>
     </row>
   </sheetData>
   <autoFilter ref="A9:H9"/>
   <mergeCells count="7">
-    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A20:D20"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:B3"/>

--- a/SO SACH - LA/CONG NO/Cong no NL ca.xlsx
+++ b/SO SACH - LA/CONG NO/Cong no NL ca.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2267" uniqueCount="445">
   <si>
     <t xml:space="preserve">NGÀY </t>
   </si>
@@ -2847,12 +2847,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2880,6 +2874,12 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2889,6 +2889,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2896,15 +2905,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3993,39 +3993,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="256" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="247"/>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="247" t="s">
+      <c r="A2" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="247"/>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
-      <c r="G2" s="247"/>
+      <c r="B2" s="256"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="247"/>
-      <c r="C3" s="247" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="256" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
       <c r="F3" s="93"/>
       <c r="G3" s="226"/>
       <c r="H3" s="62"/>
@@ -4040,18 +4040,18 @@
       <c r="I4" s="233"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="248" t="s">
+      <c r="A5" s="257" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="248"/>
-      <c r="C5" s="248"/>
-      <c r="D5" s="248"/>
-      <c r="E5" s="248"/>
-      <c r="F5" s="248"/>
-      <c r="G5" s="248"/>
-      <c r="H5" s="248"/>
-      <c r="I5" s="248"/>
-      <c r="J5" s="248"/>
+      <c r="B5" s="257"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
+      <c r="I5" s="257"/>
+      <c r="J5" s="257"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -4062,12 +4062,12 @@
       <c r="I6" s="233"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="251" t="s">
+      <c r="A7" s="249" t="s">
         <v>414</v>
       </c>
-      <c r="B7" s="251"/>
-      <c r="C7" s="250"/>
-      <c r="D7" s="250"/>
+      <c r="B7" s="249"/>
+      <c r="C7" s="248"/>
+      <c r="D7" s="248"/>
       <c r="E7" s="269" t="s">
         <v>29</v>
       </c>
@@ -4549,39 +4549,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="256" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="247"/>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="247" t="s">
+      <c r="A2" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="247"/>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
-      <c r="G2" s="247"/>
+      <c r="B2" s="256"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="247"/>
-      <c r="C3" s="247" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="256" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
       <c r="F3" s="93"/>
       <c r="G3" s="59"/>
       <c r="H3" s="62"/>
@@ -4596,18 +4596,18 @@
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="248" t="s">
+      <c r="A5" s="257" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="248"/>
-      <c r="C5" s="248"/>
-      <c r="D5" s="248"/>
-      <c r="E5" s="248"/>
-      <c r="F5" s="248"/>
-      <c r="G5" s="248"/>
-      <c r="H5" s="248"/>
-      <c r="I5" s="248"/>
-      <c r="J5" s="248"/>
+      <c r="B5" s="257"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
+      <c r="I5" s="257"/>
+      <c r="J5" s="257"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -4618,14 +4618,14 @@
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="251" t="s">
+      <c r="A7" s="249" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="251"/>
-      <c r="C7" s="250" t="s">
+      <c r="B7" s="249"/>
+      <c r="C7" s="248" t="s">
         <v>363</v>
       </c>
-      <c r="D7" s="250"/>
+      <c r="D7" s="248"/>
       <c r="E7" s="269" t="s">
         <v>29</v>
       </c>
@@ -8106,58 +8106,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="256" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="247"/>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
       <c r="F1" s="61"/>
       <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="247" t="s">
+      <c r="A2" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="247"/>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
+      <c r="B2" s="256"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
       <c r="F2" s="61"/>
       <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="247"/>
-      <c r="C3" s="247" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="256" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
       <c r="F3" s="61"/>
       <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:8" s="63" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="248" t="s">
+      <c r="A5" s="257" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="248"/>
-      <c r="C5" s="248"/>
-      <c r="D5" s="248"/>
-      <c r="E5" s="248"/>
-      <c r="F5" s="248"/>
-      <c r="G5" s="248"/>
-      <c r="H5" s="248"/>
+      <c r="B5" s="257"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
     </row>
     <row r="6" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="251" t="s">
+      <c r="A7" s="249" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="251"/>
+      <c r="B7" s="249"/>
       <c r="C7" s="277" t="s">
         <v>27</v>
       </c>
@@ -8258,14 +8258,14 @@
       <c r="H12" s="121"/>
     </row>
     <row r="13" spans="1:8" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="255"/>
-      <c r="B13" s="256"/>
-      <c r="C13" s="256"/>
-      <c r="D13" s="256"/>
-      <c r="E13" s="256"/>
-      <c r="F13" s="256"/>
-      <c r="G13" s="256"/>
-      <c r="H13" s="257"/>
+      <c r="A13" s="253"/>
+      <c r="B13" s="254"/>
+      <c r="C13" s="254"/>
+      <c r="D13" s="254"/>
+      <c r="E13" s="254"/>
+      <c r="F13" s="254"/>
+      <c r="G13" s="254"/>
+      <c r="H13" s="255"/>
     </row>
     <row r="14" spans="1:8" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
@@ -8481,14 +8481,14 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="255"/>
-      <c r="B23" s="256"/>
-      <c r="C23" s="256"/>
-      <c r="D23" s="256"/>
-      <c r="E23" s="256"/>
-      <c r="F23" s="256"/>
-      <c r="G23" s="256"/>
-      <c r="H23" s="257"/>
+      <c r="A23" s="253"/>
+      <c r="B23" s="254"/>
+      <c r="C23" s="254"/>
+      <c r="D23" s="254"/>
+      <c r="E23" s="254"/>
+      <c r="F23" s="254"/>
+      <c r="G23" s="254"/>
+      <c r="H23" s="255"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
@@ -8621,14 +8621,14 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="255"/>
-      <c r="B30" s="256"/>
-      <c r="C30" s="256"/>
-      <c r="D30" s="256"/>
-      <c r="E30" s="256"/>
-      <c r="F30" s="256"/>
-      <c r="G30" s="256"/>
-      <c r="H30" s="257"/>
+      <c r="A30" s="253"/>
+      <c r="B30" s="254"/>
+      <c r="C30" s="254"/>
+      <c r="D30" s="254"/>
+      <c r="E30" s="254"/>
+      <c r="F30" s="254"/>
+      <c r="G30" s="254"/>
+      <c r="H30" s="255"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
@@ -8859,14 +8859,14 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="255"/>
-      <c r="B41" s="256"/>
-      <c r="C41" s="256"/>
-      <c r="D41" s="256"/>
-      <c r="E41" s="256"/>
-      <c r="F41" s="256"/>
-      <c r="G41" s="256"/>
-      <c r="H41" s="257"/>
+      <c r="A41" s="253"/>
+      <c r="B41" s="254"/>
+      <c r="C41" s="254"/>
+      <c r="D41" s="254"/>
+      <c r="E41" s="254"/>
+      <c r="F41" s="254"/>
+      <c r="G41" s="254"/>
+      <c r="H41" s="255"/>
     </row>
     <row r="42" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
@@ -9678,6 +9678,11 @@
   </sheetData>
   <autoFilter ref="A9:H9"/>
   <mergeCells count="14">
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="A7:B7"/>
@@ -9687,11 +9692,6 @@
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A23:H23"/>
     <mergeCell ref="A41:H41"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.54" right="0.26" top="0.32" bottom="0.74" header="0.23" footer="0.17"/>
@@ -9728,59 +9728,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="256" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="247"/>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
       <c r="G1" s="61"/>
       <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="247" t="s">
+      <c r="A2" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="247"/>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
+      <c r="B2" s="256"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
       <c r="F2" s="236"/>
       <c r="G2" s="61"/>
       <c r="H2" s="62"/>
     </row>
     <row r="3" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="247"/>
-      <c r="C3" s="247" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="256" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
       <c r="F3" s="236"/>
       <c r="G3" s="61"/>
       <c r="H3" s="62"/>
     </row>
     <row r="4" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:9" s="63" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="248" t="s">
+      <c r="A5" s="257" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="248"/>
-      <c r="C5" s="248"/>
-      <c r="D5" s="248"/>
-      <c r="E5" s="248"/>
-      <c r="F5" s="248"/>
-      <c r="G5" s="248"/>
-      <c r="H5" s="248"/>
-      <c r="I5" s="248"/>
+      <c r="B5" s="257"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
+      <c r="I5" s="257"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="251"/>
-      <c r="B7" s="251"/>
+      <c r="A7" s="249"/>
+      <c r="B7" s="249"/>
       <c r="C7" s="277" t="s">
         <v>28</v>
       </c>
@@ -10451,58 +10451,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="256" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="247"/>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
       <c r="F1" s="61"/>
       <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="247" t="s">
+      <c r="A2" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="247"/>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
+      <c r="B2" s="256"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
       <c r="F2" s="61"/>
       <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="247"/>
-      <c r="C3" s="247" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="256" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
       <c r="F3" s="61"/>
       <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:8" s="63" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="248" t="s">
+      <c r="A5" s="257" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="248"/>
-      <c r="C5" s="248"/>
-      <c r="D5" s="248"/>
-      <c r="E5" s="248"/>
-      <c r="F5" s="248"/>
-      <c r="G5" s="248"/>
-      <c r="H5" s="248"/>
+      <c r="B5" s="257"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
     </row>
     <row r="6" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="251" t="s">
+      <c r="A7" s="249" t="s">
         <v>382</v>
       </c>
-      <c r="B7" s="251"/>
+      <c r="B7" s="249"/>
       <c r="C7" s="277" t="s">
         <v>28</v>
       </c>
@@ -10927,62 +10927,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="256" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="247"/>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
-      <c r="E1" s="247"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
+      <c r="E1" s="256"/>
       <c r="G1" s="61"/>
       <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="247" t="s">
+      <c r="A2" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="247"/>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
+      <c r="B2" s="256"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="256"/>
       <c r="G2" s="61"/>
       <c r="H2" s="62"/>
     </row>
     <row r="3" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="247"/>
+      <c r="B3" s="256"/>
       <c r="C3" s="226"/>
-      <c r="D3" s="247" t="s">
+      <c r="D3" s="256" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="247"/>
-      <c r="F3" s="247"/>
+      <c r="E3" s="256"/>
+      <c r="F3" s="256"/>
       <c r="G3" s="61"/>
       <c r="H3" s="62"/>
     </row>
     <row r="4" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:9" s="63" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="248" t="s">
+      <c r="A5" s="257" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="248"/>
-      <c r="C5" s="248"/>
-      <c r="D5" s="248"/>
-      <c r="E5" s="248"/>
-      <c r="F5" s="248"/>
-      <c r="G5" s="248"/>
-      <c r="H5" s="248"/>
-      <c r="I5" s="248"/>
+      <c r="B5" s="257"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
+      <c r="I5" s="257"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="251" t="s">
+      <c r="A7" s="249" t="s">
         <v>381</v>
       </c>
-      <c r="B7" s="251"/>
+      <c r="B7" s="249"/>
       <c r="C7" s="227"/>
       <c r="D7" s="277" t="s">
         <v>28</v>
@@ -18220,9 +18220,9 @@
   <dimension ref="A1:I105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D75" sqref="D75"/>
-      <selection pane="bottomLeft" activeCell="F91" sqref="F91"/>
+      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18304,14 +18304,14 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="251" t="s">
+      <c r="A7" s="249" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="251"/>
-      <c r="C7" s="250" t="s">
+      <c r="B7" s="249"/>
+      <c r="C7" s="248" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="250"/>
+      <c r="D7" s="248"/>
       <c r="E7" s="269" t="s">
         <v>43</v>
       </c>
@@ -20060,7 +20060,9 @@
         <f t="shared" si="8"/>
         <v>1240419.3</v>
       </c>
-      <c r="H83" s="24"/>
+      <c r="H83" s="31" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="84" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="24">
@@ -20084,7 +20086,9 @@
         <f t="shared" si="8"/>
         <v>1276225.7</v>
       </c>
-      <c r="H84" s="24"/>
+      <c r="H84" s="24" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="85" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="24">
@@ -20108,7 +20112,9 @@
         <f t="shared" si="8"/>
         <v>1313796.0999999999</v>
       </c>
-      <c r="H85" s="24"/>
+      <c r="H85" s="31" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="86" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="24">
@@ -20132,7 +20138,9 @@
         <f t="shared" si="8"/>
         <v>1366094.7</v>
       </c>
-      <c r="H86" s="24"/>
+      <c r="H86" s="24" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="87" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="24">
@@ -20156,7 +20164,9 @@
         <f t="shared" si="8"/>
         <v>1478687.7</v>
       </c>
-      <c r="H87" s="24"/>
+      <c r="H87" s="24" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="88" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="24">
@@ -20180,7 +20190,9 @@
         <f t="shared" si="8"/>
         <v>1614581.7</v>
       </c>
-      <c r="H88" s="24"/>
+      <c r="H88" s="24" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="89" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="24">
@@ -20432,13 +20444,6 @@
   </sheetData>
   <autoFilter ref="A9:H9"/>
   <mergeCells count="15">
-    <mergeCell ref="E105:H105"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="E104:H104"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A60:F60"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
@@ -20447,6 +20452,13 @@
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
+    <mergeCell ref="E105:H105"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E104:H104"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A60:F60"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.61" right="0.16" top="0.64" bottom="0.2" header="0.3" footer="0.17"/>
@@ -22152,39 +22164,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="256" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="247"/>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
       <c r="G1" s="61"/>
       <c r="H1" s="62"/>
       <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="247" t="s">
+      <c r="A2" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="247"/>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
+      <c r="B2" s="256"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="256"/>
       <c r="G2" s="61"/>
       <c r="H2" s="62"/>
       <c r="I2" s="107"/>
     </row>
     <row r="3" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="247"/>
-      <c r="C3" s="247" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="256" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
       <c r="F3" s="59"/>
       <c r="G3" s="61"/>
       <c r="H3" s="62"/>
@@ -22197,17 +22209,17 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:9" s="63" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="248" t="s">
+      <c r="A5" s="257" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="248"/>
-      <c r="C5" s="248"/>
-      <c r="D5" s="248"/>
-      <c r="E5" s="248"/>
-      <c r="F5" s="248"/>
-      <c r="G5" s="248"/>
-      <c r="H5" s="248"/>
-      <c r="I5" s="248"/>
+      <c r="B5" s="257"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
+      <c r="I5" s="257"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -22216,14 +22228,14 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="251" t="s">
+      <c r="A7" s="249" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="251"/>
-      <c r="C7" s="250" t="s">
+      <c r="B7" s="249"/>
+      <c r="C7" s="248" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="250"/>
+      <c r="D7" s="248"/>
     </row>
     <row r="8" spans="1:9" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="57"/>
@@ -22264,15 +22276,15 @@
       </c>
     </row>
     <row r="10" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="252" t="s">
+      <c r="A10" s="250" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="253"/>
-      <c r="C10" s="253"/>
-      <c r="D10" s="253"/>
-      <c r="E10" s="253"/>
-      <c r="F10" s="253"/>
-      <c r="G10" s="254"/>
+      <c r="B10" s="251"/>
+      <c r="C10" s="251"/>
+      <c r="D10" s="251"/>
+      <c r="E10" s="251"/>
+      <c r="F10" s="251"/>
+      <c r="G10" s="252"/>
       <c r="H10" s="99">
         <v>2622054</v>
       </c>
@@ -24155,15 +24167,15 @@
       </c>
     </row>
     <row r="90" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="252" t="s">
+      <c r="A90" s="250" t="s">
         <v>246</v>
       </c>
-      <c r="B90" s="253"/>
-      <c r="C90" s="253"/>
-      <c r="D90" s="253"/>
-      <c r="E90" s="253"/>
-      <c r="F90" s="253"/>
-      <c r="G90" s="254"/>
+      <c r="B90" s="251"/>
+      <c r="C90" s="251"/>
+      <c r="D90" s="251"/>
+      <c r="E90" s="251"/>
+      <c r="F90" s="251"/>
+      <c r="G90" s="252"/>
       <c r="H90" s="99">
         <f>H89</f>
         <v>2411924</v>
@@ -25239,15 +25251,15 @@
       </c>
     </row>
     <row r="136" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="255"/>
-      <c r="B136" s="256"/>
-      <c r="C136" s="256"/>
-      <c r="D136" s="256"/>
-      <c r="E136" s="256"/>
-      <c r="F136" s="256"/>
-      <c r="G136" s="256"/>
-      <c r="H136" s="256"/>
-      <c r="I136" s="257"/>
+      <c r="A136" s="253"/>
+      <c r="B136" s="254"/>
+      <c r="C136" s="254"/>
+      <c r="D136" s="254"/>
+      <c r="E136" s="254"/>
+      <c r="F136" s="254"/>
+      <c r="G136" s="254"/>
+      <c r="H136" s="254"/>
+      <c r="I136" s="255"/>
     </row>
     <row r="137" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="39"/>
@@ -26508,15 +26520,20 @@
     <row r="193" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="15"/>
       <c r="B193" s="14"/>
-      <c r="E193" s="249"/>
-      <c r="F193" s="249"/>
-      <c r="G193" s="249"/>
-      <c r="H193" s="249"/>
+      <c r="E193" s="247"/>
+      <c r="F193" s="247"/>
+      <c r="G193" s="247"/>
+      <c r="H193" s="247"/>
       <c r="I193" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A9:I9"/>
   <mergeCells count="12">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A5:I5"/>
     <mergeCell ref="E193:H193"/>
     <mergeCell ref="A188:D188"/>
     <mergeCell ref="C7:D7"/>
@@ -26524,11 +26541,6 @@
     <mergeCell ref="A90:G90"/>
     <mergeCell ref="A136:I136"/>
     <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.16" right="0.17" top="0.16" bottom="0.17" header="0.16" footer="0.16"/>
@@ -26565,58 +26577,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="256" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="247"/>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
       <c r="F1" s="61"/>
       <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="247" t="s">
+      <c r="A2" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="247"/>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
+      <c r="B2" s="256"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
       <c r="F2" s="61"/>
       <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="247"/>
-      <c r="C3" s="247" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="256" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
       <c r="F3" s="61"/>
       <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:8" s="63" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="248" t="s">
+      <c r="A5" s="257" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="248"/>
-      <c r="C5" s="248"/>
-      <c r="D5" s="248"/>
-      <c r="E5" s="248"/>
-      <c r="F5" s="248"/>
-      <c r="G5" s="248"/>
-      <c r="H5" s="248"/>
+      <c r="B5" s="257"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
     </row>
     <row r="6" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="251" t="s">
+      <c r="A7" s="249" t="s">
         <v>388</v>
       </c>
-      <c r="B7" s="251"/>
+      <c r="B7" s="249"/>
       <c r="C7" s="277" t="s">
         <v>28</v>
       </c>
@@ -27076,8 +27088,8 @@
         <v>329</v>
       </c>
       <c r="B7" s="270"/>
-      <c r="C7" s="250"/>
-      <c r="D7" s="250"/>
+      <c r="C7" s="248"/>
+      <c r="D7" s="248"/>
       <c r="E7" s="269"/>
       <c r="F7" s="269"/>
       <c r="G7" s="13"/>
@@ -27730,39 +27742,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="256" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="247"/>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="247" t="s">
+      <c r="A2" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="247"/>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
-      <c r="G2" s="247"/>
+      <c r="B2" s="256"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="247"/>
-      <c r="C3" s="247" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="256" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
       <c r="F3" s="93"/>
       <c r="G3" s="198"/>
       <c r="H3" s="62"/>
@@ -27777,18 +27789,18 @@
       <c r="I4" s="207"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="248" t="s">
+      <c r="A5" s="257" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="248"/>
-      <c r="C5" s="248"/>
-      <c r="D5" s="248"/>
-      <c r="E5" s="248"/>
-      <c r="F5" s="248"/>
-      <c r="G5" s="248"/>
-      <c r="H5" s="248"/>
-      <c r="I5" s="248"/>
-      <c r="J5" s="248"/>
+      <c r="B5" s="257"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
+      <c r="I5" s="257"/>
+      <c r="J5" s="257"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -27799,14 +27811,14 @@
       <c r="I6" s="207"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="251" t="s">
+      <c r="A7" s="249" t="s">
         <v>389</v>
       </c>
-      <c r="B7" s="251"/>
-      <c r="C7" s="250" t="s">
+      <c r="B7" s="249"/>
+      <c r="C7" s="248" t="s">
         <v>390</v>
       </c>
-      <c r="D7" s="250"/>
+      <c r="D7" s="248"/>
       <c r="E7" s="269" t="s">
         <v>29</v>
       </c>
@@ -28179,39 +28191,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="256" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="247"/>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="247" t="s">
+      <c r="A2" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="247"/>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
-      <c r="G2" s="247"/>
+      <c r="B2" s="256"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="247"/>
-      <c r="C3" s="247" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="256" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
       <c r="F3" s="93"/>
       <c r="G3" s="198"/>
       <c r="H3" s="62"/>
@@ -28226,18 +28238,18 @@
       <c r="I4" s="207"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="248" t="s">
+      <c r="A5" s="257" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="248"/>
-      <c r="C5" s="248"/>
-      <c r="D5" s="248"/>
-      <c r="E5" s="248"/>
-      <c r="F5" s="248"/>
-      <c r="G5" s="248"/>
-      <c r="H5" s="248"/>
-      <c r="I5" s="248"/>
-      <c r="J5" s="248"/>
+      <c r="B5" s="257"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
+      <c r="I5" s="257"/>
+      <c r="J5" s="257"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -28248,14 +28260,14 @@
       <c r="I6" s="207"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="251" t="s">
+      <c r="A7" s="249" t="s">
         <v>391</v>
       </c>
-      <c r="B7" s="251"/>
-      <c r="C7" s="250" t="s">
+      <c r="B7" s="249"/>
+      <c r="C7" s="248" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="250"/>
+      <c r="D7" s="248"/>
       <c r="E7" s="269" t="s">
         <v>29</v>
       </c>
@@ -28538,39 +28550,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="256" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="247"/>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="247" t="s">
+      <c r="A2" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="247"/>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
-      <c r="G2" s="247"/>
+      <c r="B2" s="256"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="247"/>
-      <c r="C3" s="247" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="256" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
       <c r="F3" s="93"/>
       <c r="G3" s="198"/>
       <c r="H3" s="62"/>
@@ -28585,18 +28597,18 @@
       <c r="I4" s="207"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="248" t="s">
+      <c r="A5" s="257" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="248"/>
-      <c r="C5" s="248"/>
-      <c r="D5" s="248"/>
-      <c r="E5" s="248"/>
-      <c r="F5" s="248"/>
-      <c r="G5" s="248"/>
-      <c r="H5" s="248"/>
-      <c r="I5" s="248"/>
-      <c r="J5" s="248"/>
+      <c r="B5" s="257"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
+      <c r="I5" s="257"/>
+      <c r="J5" s="257"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -28607,14 +28619,14 @@
       <c r="I6" s="207"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="251" t="s">
+      <c r="A7" s="249" t="s">
         <v>392</v>
       </c>
-      <c r="B7" s="251"/>
-      <c r="C7" s="250" t="s">
+      <c r="B7" s="249"/>
+      <c r="C7" s="248" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="250"/>
+      <c r="D7" s="248"/>
       <c r="E7" s="269" t="s">
         <v>29</v>
       </c>
@@ -28952,42 +28964,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="256" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="247"/>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
-      <c r="E1" s="247"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
+      <c r="E1" s="256"/>
       <c r="G1" s="92"/>
       <c r="I1" s="62"/>
       <c r="J1" s="62"/>
     </row>
     <row r="2" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="247" t="s">
+      <c r="A2" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="247"/>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
+      <c r="B2" s="256"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
+      <c r="H2" s="256"/>
       <c r="I2" s="62"/>
       <c r="J2" s="62"/>
     </row>
     <row r="3" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="247"/>
+      <c r="B3" s="256"/>
       <c r="C3" s="215"/>
-      <c r="D3" s="247" t="s">
+      <c r="D3" s="256" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="247"/>
-      <c r="F3" s="247"/>
+      <c r="E3" s="256"/>
+      <c r="F3" s="256"/>
       <c r="G3" s="93"/>
       <c r="H3" s="215"/>
       <c r="I3" s="62"/>
@@ -29002,19 +29014,19 @@
       <c r="J4" s="217"/>
     </row>
     <row r="5" spans="1:11" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="248" t="s">
+      <c r="A5" s="257" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="248"/>
-      <c r="C5" s="248"/>
-      <c r="D5" s="248"/>
-      <c r="E5" s="248"/>
-      <c r="F5" s="248"/>
-      <c r="G5" s="248"/>
-      <c r="H5" s="248"/>
-      <c r="I5" s="248"/>
-      <c r="J5" s="248"/>
-      <c r="K5" s="248"/>
+      <c r="B5" s="257"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
+      <c r="I5" s="257"/>
+      <c r="J5" s="257"/>
+      <c r="K5" s="257"/>
     </row>
     <row r="6" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="4"/>
@@ -29025,15 +29037,15 @@
       <c r="J6" s="217"/>
     </row>
     <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="251" t="s">
+      <c r="A7" s="249" t="s">
         <v>401</v>
       </c>
-      <c r="B7" s="251"/>
+      <c r="B7" s="249"/>
       <c r="C7" s="214"/>
-      <c r="D7" s="250" t="s">
+      <c r="D7" s="248" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="250"/>
+      <c r="E7" s="248"/>
       <c r="F7" s="269" t="s">
         <v>29</v>
       </c>
@@ -29613,39 +29625,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="256" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="247"/>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="247" t="s">
+      <c r="A2" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="247"/>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
-      <c r="G2" s="247"/>
+      <c r="B2" s="256"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="247"/>
-      <c r="C3" s="247" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="256" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
       <c r="F3" s="93"/>
       <c r="G3" s="218"/>
       <c r="H3" s="62"/>
@@ -29660,18 +29672,18 @@
       <c r="I4" s="222"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="248" t="s">
+      <c r="A5" s="257" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="248"/>
-      <c r="C5" s="248"/>
-      <c r="D5" s="248"/>
-      <c r="E5" s="248"/>
-      <c r="F5" s="248"/>
-      <c r="G5" s="248"/>
-      <c r="H5" s="248"/>
-      <c r="I5" s="248"/>
-      <c r="J5" s="248"/>
+      <c r="B5" s="257"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
+      <c r="I5" s="257"/>
+      <c r="J5" s="257"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -29682,14 +29694,14 @@
       <c r="I6" s="222"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="251" t="s">
+      <c r="A7" s="249" t="s">
         <v>408</v>
       </c>
-      <c r="B7" s="251"/>
-      <c r="C7" s="250" t="s">
+      <c r="B7" s="249"/>
+      <c r="C7" s="248" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="250"/>
+      <c r="D7" s="248"/>
       <c r="E7" s="269" t="s">
         <v>29</v>
       </c>
@@ -30046,39 +30058,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="256" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="247"/>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="247" t="s">
+      <c r="A2" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="247"/>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
-      <c r="G2" s="247"/>
+      <c r="B2" s="256"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="247"/>
-      <c r="C3" s="247" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="256" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
       <c r="F3" s="93"/>
       <c r="G3" s="218"/>
       <c r="H3" s="62"/>
@@ -30093,18 +30105,18 @@
       <c r="I4" s="222"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="248" t="s">
+      <c r="A5" s="257" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="248"/>
-      <c r="C5" s="248"/>
-      <c r="D5" s="248"/>
-      <c r="E5" s="248"/>
-      <c r="F5" s="248"/>
-      <c r="G5" s="248"/>
-      <c r="H5" s="248"/>
-      <c r="I5" s="248"/>
-      <c r="J5" s="248"/>
+      <c r="B5" s="257"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
+      <c r="I5" s="257"/>
+      <c r="J5" s="257"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -30115,14 +30127,14 @@
       <c r="I6" s="222"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="251" t="s">
+      <c r="A7" s="249" t="s">
         <v>409</v>
       </c>
-      <c r="B7" s="251"/>
-      <c r="C7" s="250" t="s">
+      <c r="B7" s="249"/>
+      <c r="C7" s="248" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="250"/>
+      <c r="D7" s="248"/>
       <c r="E7" s="269" t="s">
         <v>29</v>
       </c>
@@ -31489,10 +31501,10 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="251" t="s">
+      <c r="A7" s="249" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="251"/>
+      <c r="B7" s="249"/>
       <c r="E7" s="185" t="s">
         <v>294</v>
       </c>
@@ -34808,65 +34820,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="256" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="247"/>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
       <c r="G1" s="61"/>
       <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="247" t="s">
+      <c r="A2" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="247"/>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
+      <c r="B2" s="256"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="256"/>
       <c r="G2" s="61"/>
       <c r="H2" s="62"/>
     </row>
     <row r="3" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="247"/>
-      <c r="C3" s="247" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="256" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
       <c r="F3" s="59"/>
       <c r="G3" s="61"/>
       <c r="H3" s="62"/>
     </row>
     <row r="4" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:9" s="63" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="248" t="s">
+      <c r="A5" s="257" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="248"/>
-      <c r="C5" s="248"/>
-      <c r="D5" s="248"/>
-      <c r="E5" s="248"/>
-      <c r="F5" s="248"/>
-      <c r="G5" s="248"/>
-      <c r="H5" s="248"/>
-      <c r="I5" s="248"/>
+      <c r="B5" s="257"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
+      <c r="I5" s="257"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="251" t="s">
+      <c r="A7" s="249" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="251"/>
-      <c r="C7" s="251" t="s">
+      <c r="B7" s="249"/>
+      <c r="C7" s="249" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="251"/>
+      <c r="D7" s="249"/>
     </row>
     <row r="8" spans="1:9" s="55" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G8" s="56"/>
@@ -34902,15 +34914,15 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="261" t="s">
+      <c r="A10" s="264" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="262"/>
-      <c r="C10" s="262"/>
-      <c r="D10" s="262"/>
-      <c r="E10" s="262"/>
-      <c r="F10" s="262"/>
-      <c r="G10" s="263"/>
+      <c r="B10" s="265"/>
+      <c r="C10" s="265"/>
+      <c r="D10" s="265"/>
+      <c r="E10" s="265"/>
+      <c r="F10" s="265"/>
+      <c r="G10" s="266"/>
       <c r="H10" s="144">
         <v>699938</v>
       </c>
@@ -36597,15 +36609,15 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="261" t="s">
+      <c r="A81" s="264" t="s">
         <v>194</v>
       </c>
-      <c r="B81" s="262"/>
-      <c r="C81" s="262"/>
-      <c r="D81" s="262"/>
-      <c r="E81" s="262"/>
-      <c r="F81" s="262"/>
-      <c r="G81" s="263"/>
+      <c r="B81" s="265"/>
+      <c r="C81" s="265"/>
+      <c r="D81" s="265"/>
+      <c r="E81" s="265"/>
+      <c r="F81" s="265"/>
+      <c r="G81" s="266"/>
       <c r="H81" s="144">
         <f>H80</f>
         <v>1800668</v>
@@ -37587,15 +37599,15 @@
       <c r="I120" s="31"/>
     </row>
     <row r="121" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="261" t="s">
+      <c r="A121" s="264" t="s">
         <v>246</v>
       </c>
-      <c r="B121" s="262"/>
-      <c r="C121" s="262"/>
-      <c r="D121" s="262"/>
-      <c r="E121" s="262"/>
-      <c r="F121" s="262"/>
-      <c r="G121" s="263"/>
+      <c r="B121" s="265"/>
+      <c r="C121" s="265"/>
+      <c r="D121" s="265"/>
+      <c r="E121" s="265"/>
+      <c r="F121" s="265"/>
+      <c r="G121" s="266"/>
       <c r="H121" s="144">
         <f>H120</f>
         <v>2586475</v>
@@ -38575,12 +38587,12 @@
       <c r="I163" s="30"/>
     </row>
     <row r="164" spans="1:9" s="37" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="264" t="s">
+      <c r="A164" s="261" t="s">
         <v>14</v>
       </c>
-      <c r="B164" s="265"/>
-      <c r="C164" s="265"/>
-      <c r="D164" s="266"/>
+      <c r="B164" s="262"/>
+      <c r="C164" s="262"/>
+      <c r="D164" s="263"/>
       <c r="E164" s="81">
         <f>SUM(E11:E163)+H10</f>
         <v>8739526.5</v>
@@ -38637,6 +38649,11 @@
   </sheetData>
   <autoFilter ref="A9:I9"/>
   <mergeCells count="12">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A10:G10"/>
     <mergeCell ref="A164:D164"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A7:B7"/>
@@ -38644,11 +38661,6 @@
     <mergeCell ref="A81:G81"/>
     <mergeCell ref="A121:G121"/>
     <mergeCell ref="I152:I153"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A10:G10"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.41" right="0.22" top="0.28000000000000003" bottom="0.15" header="0.16" footer="0.15"/>
@@ -38685,42 +38697,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="256" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="247"/>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
-      <c r="E1" s="247"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
+      <c r="E1" s="256"/>
       <c r="G1" s="92"/>
       <c r="I1" s="62"/>
       <c r="J1" s="62"/>
     </row>
     <row r="2" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="247" t="s">
+      <c r="A2" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="247"/>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
+      <c r="B2" s="256"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
+      <c r="H2" s="256"/>
       <c r="I2" s="62"/>
       <c r="J2" s="62"/>
     </row>
     <row r="3" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="247"/>
+      <c r="B3" s="256"/>
       <c r="C3" s="226"/>
-      <c r="D3" s="247" t="s">
+      <c r="D3" s="256" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="247"/>
-      <c r="F3" s="247"/>
+      <c r="E3" s="256"/>
+      <c r="F3" s="256"/>
       <c r="G3" s="93"/>
       <c r="H3" s="198"/>
       <c r="I3" s="62"/>
@@ -38735,19 +38747,19 @@
       <c r="J4" s="207"/>
     </row>
     <row r="5" spans="1:11" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="248" t="s">
+      <c r="A5" s="257" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="248"/>
-      <c r="C5" s="248"/>
-      <c r="D5" s="248"/>
-      <c r="E5" s="248"/>
-      <c r="F5" s="248"/>
-      <c r="G5" s="248"/>
-      <c r="H5" s="248"/>
-      <c r="I5" s="248"/>
-      <c r="J5" s="248"/>
-      <c r="K5" s="248"/>
+      <c r="B5" s="257"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
+      <c r="I5" s="257"/>
+      <c r="J5" s="257"/>
+      <c r="K5" s="257"/>
     </row>
     <row r="6" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="4"/>
@@ -38758,15 +38770,15 @@
       <c r="J6" s="207"/>
     </row>
     <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="251" t="s">
+      <c r="A7" s="249" t="s">
         <v>389</v>
       </c>
-      <c r="B7" s="251"/>
+      <c r="B7" s="249"/>
       <c r="C7" s="227"/>
-      <c r="D7" s="250" t="s">
+      <c r="D7" s="248" t="s">
         <v>390</v>
       </c>
-      <c r="E7" s="250"/>
+      <c r="E7" s="248"/>
       <c r="F7" s="269" t="s">
         <v>29</v>
       </c>
@@ -41726,39 +41738,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="256" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="247"/>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="247" t="s">
+      <c r="A2" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="247"/>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
-      <c r="G2" s="247"/>
+      <c r="B2" s="256"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="247"/>
-      <c r="C3" s="247" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="256" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
       <c r="F3" s="93"/>
       <c r="G3" s="198"/>
       <c r="H3" s="62"/>
@@ -41773,18 +41785,18 @@
       <c r="I4" s="207"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="248" t="s">
+      <c r="A5" s="257" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="248"/>
-      <c r="C5" s="248"/>
-      <c r="D5" s="248"/>
-      <c r="E5" s="248"/>
-      <c r="F5" s="248"/>
-      <c r="G5" s="248"/>
-      <c r="H5" s="248"/>
-      <c r="I5" s="248"/>
-      <c r="J5" s="248"/>
+      <c r="B5" s="257"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
+      <c r="I5" s="257"/>
+      <c r="J5" s="257"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -41795,14 +41807,14 @@
       <c r="I6" s="207"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="251" t="s">
+      <c r="A7" s="249" t="s">
         <v>379</v>
       </c>
-      <c r="B7" s="251"/>
-      <c r="C7" s="250" t="s">
+      <c r="B7" s="249"/>
+      <c r="C7" s="248" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="250"/>
+      <c r="D7" s="248"/>
       <c r="E7" s="269" t="s">
         <v>29</v>
       </c>
@@ -42591,39 +42603,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="256" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="247"/>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="247" t="s">
+      <c r="A2" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="247"/>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
-      <c r="G2" s="247"/>
+      <c r="B2" s="256"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="247"/>
-      <c r="C3" s="247" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="256" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
       <c r="F3" s="93"/>
       <c r="G3" s="218"/>
       <c r="H3" s="62"/>
@@ -42638,18 +42650,18 @@
       <c r="I4" s="222"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="248" t="s">
+      <c r="A5" s="257" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="248"/>
-      <c r="C5" s="248"/>
-      <c r="D5" s="248"/>
-      <c r="E5" s="248"/>
-      <c r="F5" s="248"/>
-      <c r="G5" s="248"/>
-      <c r="H5" s="248"/>
-      <c r="I5" s="248"/>
-      <c r="J5" s="248"/>
+      <c r="B5" s="257"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
+      <c r="I5" s="257"/>
+      <c r="J5" s="257"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -42660,14 +42672,14 @@
       <c r="I6" s="222"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="251" t="s">
+      <c r="A7" s="249" t="s">
         <v>403</v>
       </c>
-      <c r="B7" s="251"/>
-      <c r="C7" s="250" t="s">
+      <c r="B7" s="249"/>
+      <c r="C7" s="248" t="s">
         <v>404</v>
       </c>
-      <c r="D7" s="250"/>
+      <c r="D7" s="248"/>
       <c r="E7" s="269" t="s">
         <v>29</v>
       </c>

--- a/SO SACH - LA/CONG NO/Cong no NL ca.xlsx
+++ b/SO SACH - LA/CONG NO/Cong no NL ca.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="14940" windowHeight="8745" tabRatio="968" firstSheet="7" activeTab="17"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="14940" windowHeight="8745" tabRatio="968" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="T.KẾT" sheetId="26" r:id="rId1"/>
@@ -68,13 +68,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'TRÍ HẢO VT'!$A$9:$J$230</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TỶ LIÊN'!$A$9:$H$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="27">Sheet1!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'TỶ LIÊN'!$9:$9</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2267" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2272" uniqueCount="449">
   <si>
     <t xml:space="preserve">NGÀY </t>
   </si>
@@ -1505,14 +1506,6 @@
 2016</t>
   </si>
   <si>
-    <t>TRUNG
-VT</t>
-  </si>
-  <si>
-    <t>TÂM
-VT</t>
-  </si>
-  <si>
     <t>Bò file tẩm N</t>
   </si>
   <si>
@@ -1520,6 +1513,26 @@
   </si>
   <si>
     <t>Làm sạch</t>
+  </si>
+  <si>
+    <t>CÚC
+BĐ</t>
+  </si>
+  <si>
+    <t>HUỆ
+BĐ</t>
+  </si>
+  <si>
+    <t>Trả chỉ mặn</t>
+  </si>
+  <si>
+    <t>Cơm mốc</t>
+  </si>
+  <si>
+    <t>Chuyển tiền Trang VT</t>
+  </si>
+  <si>
+    <t>GC cá bò đông</t>
   </si>
 </sst>
 </file>
@@ -3415,8 +3428,8 @@
         <v>9</v>
       </c>
       <c r="C5" s="151">
-        <f>'TỶ LIÊN'!$G$152</f>
-        <v>50562</v>
+        <f>'TỶ LIÊN'!$G$148</f>
+        <v>47963.199999999255</v>
       </c>
       <c r="E5" s="149">
         <f t="array" ref="E5">IF(G5&lt;&gt;0,SUM(($G$4:G5&lt;&gt;0)*1),"")</f>
@@ -3943,7 +3956,7 @@
       <c r="B35" s="246"/>
       <c r="C35" s="213">
         <f>SUM(C4:C34)</f>
-        <v>5698582.5800000001</v>
+        <v>5695983.7799999993</v>
       </c>
       <c r="E35" s="246" t="s">
         <v>14</v>
@@ -18219,8 +18232,8 @@
   </sheetPr>
   <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D75" sqref="D75"/>
       <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
     </sheetView>
@@ -30463,7 +30476,7 @@
   <dimension ref="A1:BC38"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1"/>
+      <selection activeCell="G1" sqref="G1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30488,28 +30501,28 @@
         <v>50</v>
       </c>
       <c r="C1" s="90" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D1" s="90" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="E1" s="90" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="F1" s="90" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="G1" s="90" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="H1" s="90" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="I1" s="90" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="J1" s="90" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="Q1" s="90" t="s">
         <v>52</v>
@@ -31417,12 +31430,12 @@
   <sheetPr codeName="Sheet8" enableFormatConditionsCalculation="0">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:H157"/>
+  <dimension ref="A1:H153"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A184" sqref="A184"/>
-      <selection pane="bottomLeft" activeCell="B142" sqref="B142"/>
+      <selection pane="bottomLeft" activeCell="F143" sqref="F143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31432,7 +31445,7 @@
     <col min="3" max="3" width="12" style="5" customWidth="1"/>
     <col min="4" max="4" width="11" style="6" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="9" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" style="6" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" style="4" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="4"/>
@@ -34479,12 +34492,12 @@
         <v>52</v>
       </c>
       <c r="E138" s="27">
-        <f t="shared" ref="E138:E150" si="20">C138*D138</f>
+        <f t="shared" ref="E138:E146" si="20">C138*D138</f>
         <v>135200</v>
       </c>
       <c r="F138" s="29"/>
       <c r="G138" s="27">
-        <f t="shared" ref="G138:G150" si="21">IF(B138&lt;&gt;"",G137+E138-F138,0)</f>
+        <f t="shared" ref="G138:G146" si="21">IF(B138&lt;&gt;"",G137+E138-F138,0)</f>
         <v>500562.00000000012</v>
       </c>
       <c r="H138" s="24"/>
@@ -34543,95 +34556,125 @@
       <c r="C141" s="26">
         <v>1050</v>
       </c>
-      <c r="D141" s="27"/>
+      <c r="D141" s="27">
+        <v>95</v>
+      </c>
       <c r="E141" s="27">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>99750</v>
       </c>
       <c r="F141" s="29"/>
       <c r="G141" s="27">
         <f t="shared" si="21"/>
-        <v>50562.000000000116</v>
+        <v>150312.00000000012</v>
       </c>
       <c r="H141" s="24"/>
     </row>
     <row r="142" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="24"/>
-      <c r="B142" s="31"/>
-      <c r="C142" s="26"/>
-      <c r="D142" s="27"/>
-      <c r="E142" s="27">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="F142" s="29"/>
+      <c r="B142" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="C142" s="26">
+        <v>120</v>
+      </c>
+      <c r="D142" s="27">
+        <v>95</v>
+      </c>
+      <c r="E142" s="27"/>
+      <c r="F142" s="29">
+        <f>C142*D142</f>
+        <v>11400</v>
+      </c>
       <c r="G142" s="27">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>138912.00000000012</v>
       </c>
       <c r="H142" s="24"/>
     </row>
     <row r="143" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="24"/>
-      <c r="B143" s="31"/>
-      <c r="C143" s="26"/>
-      <c r="D143" s="27"/>
-      <c r="E143" s="27">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="F143" s="29"/>
+      <c r="B143" s="31" t="s">
+        <v>446</v>
+      </c>
+      <c r="C143" s="26">
+        <v>6</v>
+      </c>
+      <c r="D143" s="27">
+        <v>52</v>
+      </c>
+      <c r="E143" s="27"/>
+      <c r="F143" s="29">
+        <f>C143*D143</f>
+        <v>312</v>
+      </c>
       <c r="G143" s="27">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>138600.00000000012</v>
       </c>
       <c r="H143" s="24"/>
     </row>
     <row r="144" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="24"/>
-      <c r="B144" s="31"/>
+      <c r="B144" s="31" t="s">
+        <v>447</v>
+      </c>
       <c r="C144" s="26"/>
       <c r="D144" s="27"/>
       <c r="E144" s="27">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F144" s="29"/>
+      <c r="F144" s="29">
+        <v>13000</v>
+      </c>
       <c r="G144" s="27">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>125600.00000000012</v>
       </c>
       <c r="H144" s="24"/>
     </row>
     <row r="145" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="24"/>
-      <c r="B145" s="31"/>
-      <c r="C145" s="26"/>
-      <c r="D145" s="27"/>
+      <c r="B145" s="31" t="s">
+        <v>448</v>
+      </c>
+      <c r="C145" s="26">
+        <v>9318</v>
+      </c>
+      <c r="D145" s="27">
+        <v>2.4</v>
+      </c>
       <c r="E145" s="27">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>22363.200000000001</v>
       </c>
       <c r="F145" s="29"/>
       <c r="G145" s="27">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>147963.20000000013</v>
       </c>
       <c r="H145" s="24"/>
     </row>
     <row r="146" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="24"/>
-      <c r="B146" s="31"/>
+      <c r="A146" s="24">
+        <v>42403</v>
+      </c>
+      <c r="B146" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="C146" s="26"/>
       <c r="D146" s="27"/>
       <c r="E146" s="27">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F146" s="29"/>
+      <c r="F146" s="29">
+        <v>100000</v>
+      </c>
       <c r="G146" s="27">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>47963.200000000128</v>
       </c>
       <c r="H146" s="24"/>
     </row>
@@ -34641,144 +34684,80 @@
       <c r="C147" s="26"/>
       <c r="D147" s="27"/>
       <c r="E147" s="27">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="E147" si="22">C147*D147</f>
         <v>0</v>
       </c>
       <c r="F147" s="29"/>
       <c r="G147" s="27">
-        <f t="shared" si="21"/>
+        <f>IF(B147&lt;&gt;"",#REF!+E147-F147,0)</f>
         <v>0</v>
       </c>
       <c r="H147" s="24"/>
     </row>
-    <row r="148" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="24"/>
-      <c r="B148" s="31"/>
-      <c r="C148" s="26"/>
-      <c r="D148" s="27"/>
-      <c r="E148" s="27">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="F148" s="29"/>
-      <c r="G148" s="27">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="H148" s="24"/>
-    </row>
-    <row r="149" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="24"/>
-      <c r="B149" s="31"/>
-      <c r="C149" s="26"/>
-      <c r="D149" s="27"/>
-      <c r="E149" s="27">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="F149" s="29"/>
-      <c r="G149" s="27">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="H149" s="24"/>
-    </row>
-    <row r="150" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="24"/>
-      <c r="B150" s="31"/>
-      <c r="C150" s="26"/>
-      <c r="D150" s="27"/>
-      <c r="E150" s="27">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="F150" s="29"/>
-      <c r="G150" s="27">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="H150" s="24"/>
-    </row>
-    <row r="151" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="24"/>
-      <c r="B151" s="31"/>
-      <c r="C151" s="26"/>
-      <c r="D151" s="27"/>
-      <c r="E151" s="27">
-        <f t="shared" ref="E151" si="22">C151*D151</f>
-        <v>0</v>
-      </c>
-      <c r="F151" s="29"/>
-      <c r="G151" s="27">
-        <f t="shared" ref="G151" si="23">IF(B151&lt;&gt;"",G150+E151-F151,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H151" s="24"/>
-    </row>
-    <row r="152" spans="1:8" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="246" t="s">
+    <row r="148" spans="1:8" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="B152" s="246"/>
-      <c r="C152" s="246"/>
-      <c r="D152" s="246"/>
-      <c r="E152" s="68">
-        <f>SUM(E10:E151)</f>
-        <v>10208134</v>
-      </c>
-      <c r="F152" s="68">
-        <f>SUM(F10:F151)</f>
-        <v>10157572</v>
-      </c>
-      <c r="G152" s="82">
-        <f>E152-F152</f>
-        <v>50562</v>
-      </c>
-      <c r="H152" s="69"/>
-    </row>
-    <row r="153" spans="1:8" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F153" s="11"/>
-      <c r="G153" s="7"/>
-    </row>
-    <row r="154" spans="1:8" s="111" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="108"/>
-      <c r="B154" s="114" t="s">
+      <c r="B148" s="246"/>
+      <c r="C148" s="246"/>
+      <c r="D148" s="246"/>
+      <c r="E148" s="68">
+        <f>SUM(E10:E147)</f>
+        <v>10330247.199999999</v>
+      </c>
+      <c r="F148" s="68">
+        <f>SUM(F10:F147)</f>
+        <v>10282284</v>
+      </c>
+      <c r="G148" s="82">
+        <f>E148-F148</f>
+        <v>47963.199999999255</v>
+      </c>
+      <c r="H148" s="69"/>
+    </row>
+    <row r="149" spans="1:8" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F149" s="11"/>
+      <c r="G149" s="7"/>
+    </row>
+    <row r="150" spans="1:8" s="111" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="108"/>
+      <c r="B150" s="114" t="s">
         <v>95</v>
       </c>
-      <c r="C154" s="109"/>
-      <c r="D154" s="110"/>
-      <c r="E154" s="128">
-        <f>G152*1000</f>
-        <v>50562000</v>
-      </c>
-      <c r="F154" s="115" t="s">
+      <c r="C150" s="109"/>
+      <c r="D150" s="110"/>
+      <c r="E150" s="128">
+        <f>G148*1000</f>
+        <v>47963199.999999255</v>
+      </c>
+      <c r="F150" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="G154" s="115"/>
-      <c r="H154" s="110"/>
-    </row>
-    <row r="155" spans="1:8" s="111" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="108"/>
-      <c r="B155" s="114" t="s">
+      <c r="G150" s="115"/>
+      <c r="H150" s="110"/>
+    </row>
+    <row r="151" spans="1:8" s="111" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="108"/>
+      <c r="B151" s="114" t="s">
         <v>85</v>
       </c>
-      <c r="C155" s="112" t="e">
-        <f ca="1">[1]!VND(E154, TRUE)</f>
+      <c r="C151" s="112" t="e">
+        <f ca="1">[1]!VND(E150, TRUE)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D155" s="110"/>
-      <c r="E155" s="110"/>
-      <c r="F155" s="113"/>
-      <c r="G155" s="110"/>
-      <c r="H155" s="110"/>
-    </row>
-    <row r="156" spans="1:8" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" spans="1:8" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D151" s="110"/>
+      <c r="E151" s="110"/>
+      <c r="F151" s="113"/>
+      <c r="G151" s="110"/>
+      <c r="H151" s="110"/>
+    </row>
+    <row r="152" spans="1:8" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" spans="1:8" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A9:H9"/>
   <mergeCells count="8">
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A152:D152"/>
+    <mergeCell ref="A148:D148"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:F2"/>
@@ -34788,7 +34767,7 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.34" right="0.23" top="0.32" bottom="0.2" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -41439,7 +41418,7 @@
         <v>42390</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C10" s="20">
         <v>958</v>
@@ -41510,7 +41489,7 @@
     <row r="13" spans="1:9" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="243"/>
       <c r="B13" s="244" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C13" s="245">
         <v>2300</v>
@@ -41532,7 +41511,7 @@
     <row r="14" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="243"/>
       <c r="B14" s="244" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C14" s="245">
         <v>1958</v>
